--- a/Proyectos/2016/Linea Base/Plan_proyecto_2016.xlsx
+++ b/Proyectos/2016/Linea Base/Plan_proyecto_2016.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">#ref!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Sheet_Title" vbProcedure="false">"Presentación"</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_Toc120446010" vbProcedure="false">'Datos Generales'!$A$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_Toc120446011" vbProcedure="false">'Datos Generales'!$A$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_Toc120446011" vbProcedure="false">'Datos Generales'!$A$6</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">#ref!</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Sheet_Title" vbProcedure="false">"Datos Generales"</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_Toc109545561" vbProcedure="false">#ref!</definedName>
@@ -55,6 +55,9 @@
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0" vbProcedure="false">'Plan Riesgos'!$A$1:$F$13</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Plan Riesgos'!$A$1:$F$13</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Plan Riesgos'!$A$1:$F$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Plan Riesgos'!$A$1:$F$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Plan Riesgos'!$A$1:$F$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Plan Riesgos'!$A$1:$F$13</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Sheet_Title" vbProcedure="false">"Plan Riesgos"</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="true" iterateDelta="0.001"/>
@@ -163,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="267">
   <si>
     <t>Plan del Proyecto</t>
   </si>
@@ -198,13 +201,19 @@
     <t>Objetivo del Negocio</t>
   </si>
   <si>
-    <t>Todas las mediciones y objetivos de negocio están especificados dentro del plan de métricas anual</t>
-  </si>
-  <si>
-    <t>Supuestos y Restricciones</t>
-  </si>
-  <si>
-    <t>Todos los supuestos y restricciones se encuentran dentro del documento de términos y condiciones de la empresa reflejado en cada cotización de instancia.</t>
+    <r>
+      <t>Todas las mediciones y objetivos de negocio están especificados dentro del plan de métricas anual:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6666FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> /Proyectos/2016/Métricas y monitoreo/Plan_Métricas_2016</t>
+    </r>
   </si>
   <si>
     <t>Estrategia</t>
@@ -213,19 +222,13 @@
     <t>Ciclo de Vida:</t>
   </si>
   <si>
-    <t>Referencia al documento Organización/Ciclo_Vida/Ciclo_de_vida</t>
+    <t>http://procesos.selvv.com/</t>
   </si>
   <si>
     <t>Iteraciones:</t>
   </si>
   <si>
-    <t>Todas las iteraciones del proyecto se reflejan en el ciclo de vida de la empresa</t>
-  </si>
-  <si>
-    <t>Observaciones:</t>
-  </si>
-  <si>
-    <t>No aplica</t>
+    <t>Todas las iteraciones del proyecto se reflejan en el ciclo de vida de la empresa de manera mensual</t>
   </si>
   <si>
     <t>Hitos y Entregables</t>
@@ -246,7 +249,7 @@
     <t>Arranque de proyecto anual</t>
   </si>
   <si>
-    <t>Plan de proyecto anual, plan de métricas anual, plantillas de trabajo, recursos materiales, capacitación</t>
+    <t>Plan de proyecto anual, plan de métricas anual, plantillas de trabajo, recursos materiales, capacitación, catalogo de servicio.</t>
   </si>
   <si>
     <t>Obtener la venta correspondiente de Enero</t>
@@ -456,30 +459,54 @@
     <t>César Augusto Martínez Solís</t>
   </si>
   <si>
+    <t>Soporte/desarrollo</t>
+  </si>
+  <si>
     <t>José Francisco Llamas Díaz</t>
   </si>
   <si>
+    <t>Soporte</t>
+  </si>
+  <si>
     <t>Veroselenne Chávez Ruiz</t>
   </si>
   <si>
+    <t>Líder desarrollo</t>
+  </si>
+  <si>
     <t>Marisol Ornelas Casillas</t>
   </si>
   <si>
+    <t>Ventas</t>
+  </si>
+  <si>
     <t>Heriberto Daniel Sánchez Peña</t>
   </si>
   <si>
+    <t>Desarrollador</t>
+  </si>
+  <si>
     <t>Judith Adriana Jaramillo Chávez</t>
   </si>
   <si>
     <t>Jovanny Israel Zepeda Roque</t>
   </si>
   <si>
+    <t>Auditor</t>
+  </si>
+  <si>
     <t>Daniela Real López</t>
   </si>
   <si>
+    <t>Diseñador</t>
+  </si>
+  <si>
     <t>Ricardo González Novela</t>
   </si>
   <si>
+    <t>Director</t>
+  </si>
+  <si>
     <t>Karen Ivonne Núñez</t>
   </si>
   <si>
@@ -492,19 +519,25 @@
     <t>Magda Celene Montoya Hernández</t>
   </si>
   <si>
+    <t>Administración</t>
+  </si>
+  <si>
     <t>Francisco González</t>
   </si>
   <si>
+    <t>Se contempla el pago de sueldos a desarrollo debido a que esta área genera el producto Easy Retail el cual esta considerado dentro del catalogo de servicios y genera ganacias por ventas de producto o garantía</t>
+  </si>
+  <si>
     <t>Estimación de esfuerzo</t>
   </si>
   <si>
-    <t>La estimación de esfuerzo esta basada en el número de proyectos esperados para poder alcanzar la meta de ventas establecida anualmente por la empresa</t>
+    <t>La estimación de esfuerzo esta basada en el número de tickets esperados a atender para poder alcanzar la meta de ventas establecida anualmente por la empresa</t>
   </si>
   <si>
     <t>Area</t>
   </si>
   <si>
-    <t>Número de tickets</t>
+    <t>Número de tickets anuales</t>
   </si>
   <si>
     <t>Valor estimado promedio</t>
@@ -513,16 +546,76 @@
     <t>Tickets mensuales</t>
   </si>
   <si>
-    <t>Ventas</t>
-  </si>
-  <si>
-    <t>3360 pesos en promedio por ticket</t>
-  </si>
-  <si>
-    <t>Soporte</t>
-  </si>
-  <si>
-    <t>Se estima un promedio del 80 por ciento de asistencia de soporte para las ventas generadas por el area de ventas de las cuales al mes se esperan 40 tickets con una duracion entre 1 y dos horas y el resto superior a esas dos horas.</t>
+    <t>3360 pesos en promedio por ticket (dicho resultado surge del documento Filosofía SOS ubicado en métricas)</t>
+  </si>
+  <si>
+    <t>Se espera  en promedio el 80% contra los tickets de ventas los cuales se distribuyen de 60 a 70 tickets por persona de soporte de forma mensual de los cuales aproximadamente 40 tickets serán de complejidad baja con un esfuerzo entre una a dos horas, 15 tickets esperados de complejidad media con una duración de dos a 5 horas y el resto de complejidad alta superior a 5 horas </t>
+  </si>
+  <si>
+    <t>Tabla basada en un mes promedio de 160 a 180 horas hábiles por persona </t>
+  </si>
+  <si>
+    <t>Estimacion de costos de Tickets soporte mensual</t>
+  </si>
+  <si>
+    <t>Dificultad</t>
+  </si>
+  <si>
+    <t>Tickets esperados</t>
+  </si>
+  <si>
+    <t>Costo Hora soporte promedio</t>
+  </si>
+  <si>
+    <t>Horas estimadas ticket</t>
+  </si>
+  <si>
+    <t>Horas totales estimadas</t>
+  </si>
+  <si>
+    <t>Costo estimado</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Tipo de atención de ticket</t>
+  </si>
+  <si>
+    <t>En Base al total de tickets esperados de forma mensual  se obtiene el número de tickets a atender y  el rango de salario promedio para el área de soporte</t>
+  </si>
+  <si>
+    <t>Tipo ticket</t>
+  </si>
+  <si>
+    <t>Nivel conocimiento</t>
+  </si>
+  <si>
+    <t>Bajo</t>
+  </si>
+  <si>
+    <t>Bajo – Alto</t>
+  </si>
+  <si>
+    <t>Medio</t>
+  </si>
+  <si>
+    <t>Alto</t>
+  </si>
+  <si>
+    <t>Intermedio – Alto</t>
+  </si>
+  <si>
+    <t>Tipo de atención y conocimientos basada en matriz de conocimientos</t>
   </si>
   <si>
     <t>Matriz de responsabilidades</t>
@@ -649,16 +742,16 @@
     <t>Frecuencia</t>
   </si>
   <si>
-    <t>Dar a conocer el catalogo de servicios</t>
+    <t>Dar a conocer el catalogo de servicios y procesos de la empresa</t>
   </si>
   <si>
     <t>Jovanny Zepeda, Integrantes  nuevos</t>
   </si>
   <si>
-    <t>Capacitar en procesos de la empresa a personal nuevo</t>
-  </si>
-  <si>
-    <t>Anualmente y al presentarse cambios</t>
+    <t>Capacitar al personal actual y de reciente ingreso en el catalogo de servicios y procesos de la empresa</t>
+  </si>
+  <si>
+    <t>Anualmente, al presentarse cambios o integración de elementos nuevos</t>
   </si>
   <si>
     <t>reunion de monitoreo</t>
@@ -667,7 +760,7 @@
     <t>Ricardo Novela, Jovanny Zepeda</t>
   </si>
   <si>
-    <t>revisar resultados de métricas</t>
+    <t>revisar resultados de Métricas de forma mensual para validar el cumplimiento de objetivos o bien tomar acciones correctivas</t>
   </si>
   <si>
     <t>Mensualmente</t>
@@ -676,7 +769,7 @@
     <t>Plan de proyecto y métricas anual</t>
   </si>
   <si>
-    <t>Revisar documentos anuales de planeación</t>
+    <t>Dar a conocer la estrategia anual de la empresa (Revisar plan de proyecto, roles y responsables, hitos y establecer un compromiso con la organización)</t>
   </si>
   <si>
     <t>Anualmente</t>
@@ -709,13 +802,16 @@
     <t>Software</t>
   </si>
   <si>
+    <t>1 proveedor mínimo</t>
+  </si>
+  <si>
+    <t>AmmyAdmin</t>
+  </si>
+  <si>
     <t>1 por maquina</t>
   </si>
   <si>
-    <t>AmmyAdmin</t>
-  </si>
-  <si>
-    <t>Computadora</t>
+    <t>Recursos materiales requeridos para la entrega de servicios</t>
   </si>
   <si>
     <t>Infraestructura</t>
@@ -724,6 +820,9 @@
     <t>1 por usuario</t>
   </si>
   <si>
+    <t>Esta especificado en el archivo control de equipos todos los elementos necesarios para entregar el servicio como orejeras, computadoras, etc acorde al plan anual</t>
+  </si>
+  <si>
     <t>Office</t>
   </si>
   <si>
@@ -877,26 +976,17 @@
     <t>1.21 – 1.80</t>
   </si>
   <si>
-    <t>Alta</t>
-  </si>
-  <si>
     <t>0.61 – 1.20</t>
   </si>
   <si>
-    <t>Media</t>
-  </si>
-  <si>
     <t>0 – 0.60</t>
-  </si>
-  <si>
-    <t>Baja</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
@@ -904,11 +994,12 @@
     <numFmt numFmtId="168" formatCode="#,##0.00"/>
     <numFmt numFmtId="169" formatCode="[$$-80A]#,##0.00;[RED]\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="170" formatCode="\$#,##0;[RED]&quot;-$&quot;#,##0"/>
-    <numFmt numFmtId="171" formatCode="DD\-MMM\-YY"/>
-    <numFmt numFmtId="172" formatCode="MMM\-YY"/>
-    <numFmt numFmtId="173" formatCode="0%"/>
+    <numFmt numFmtId="171" formatCode="0.00"/>
+    <numFmt numFmtId="172" formatCode="DD\-MMM\-YY"/>
+    <numFmt numFmtId="173" formatCode="MMM\-YY"/>
+    <numFmt numFmtId="174" formatCode="0%"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="33">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -975,6 +1066,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF6666FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1015,6 +1113,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1178,14 +1282,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF93CDDD"/>
-        <bgColor rgb="FF99CCFF"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFEEEEEE"/>
+        <fgColor rgb="FF93CDDD"/>
+        <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -1385,12 +1489,12 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="173" fontId="27" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="174" fontId="29" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="167">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1463,15 +1567,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1479,15 +1583,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1495,342 +1599,378 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="10" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1839,7 +1979,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="27" fillId="7" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="174" fontId="29" fillId="7" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1851,11 +1991,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1963,11 +2103,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="174" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1983,7 +2123,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1991,27 +2131,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="32" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="32" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="32" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2019,7 +2159,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2074,7 +2214,7 @@
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF6666FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFCC00"/>
@@ -2102,7 +2242,7 @@
   </sheetPr>
   <dimension ref="A1:C65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2220,16 +2360,17 @@
   </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="32.6479591836735"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="55.3469387755102"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="255" min="4" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.2755102040816"/>
+    <col collapsed="false" hidden="false" max="255" min="5" style="1" width="10.8010204081633"/>
     <col collapsed="false" hidden="false" max="256" min="256" style="1" width="2.29591836734694"/>
     <col collapsed="false" hidden="false" max="257" min="257" style="1" width="27.5408163265306"/>
     <col collapsed="false" hidden="false" max="258" min="258" style="1" width="55.3469387755102"/>
@@ -4326,7 +4467,7 @@
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
@@ -4334,315 +4475,293 @@
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="42.6" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="11"/>
+    <row r="8" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="A8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" customFormat="false" ht="42.6" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>16</v>
-      </c>
+    <row r="9" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A10" s="13" t="s">
+    <row r="10" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="A11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A11" s="13" t="s">
+      <c r="B11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="D11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A14" s="16" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="A12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C12" s="19" t="n">
+        <v>42380</v>
+      </c>
+      <c r="D12" s="20" t="n">
+        <v>42380</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="A13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="B13" s="13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A15" s="13" t="s">
+      <c r="C13" s="22" t="n">
+        <v>42402</v>
+      </c>
+      <c r="D13" s="20" t="n">
+        <v>42402</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A14" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="22" t="n">
+        <v>42432</v>
+      </c>
+      <c r="D14" s="22" t="n">
+        <v>42439</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A15" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="19" t="n">
-        <v>42380</v>
-      </c>
-      <c r="D15" s="20" t="n">
-        <v>42380</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="B15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="22" t="n">
+        <v>42463</v>
+      </c>
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A16" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C16" s="22" t="n">
-        <v>42402</v>
-      </c>
-      <c r="D16" s="20" t="n">
-        <v>42402</v>
-      </c>
+        <v>42493</v>
+      </c>
+      <c r="D16" s="22"/>
     </row>
     <row r="17" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A17" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C17" s="22" t="n">
-        <v>42432</v>
+        <v>42524</v>
       </c>
       <c r="D17" s="22"/>
     </row>
     <row r="18" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A18" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C18" s="22" t="n">
-        <v>42463</v>
+        <v>42554</v>
       </c>
       <c r="D18" s="22"/>
     </row>
     <row r="19" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A19" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C19" s="22" t="n">
-        <v>42493</v>
+        <v>42585</v>
       </c>
       <c r="D19" s="22"/>
     </row>
     <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A20" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="22" t="n">
+        <v>42616</v>
+      </c>
+      <c r="D20" s="22"/>
+    </row>
+    <row r="21" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A21" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="22" t="n">
-        <v>42524</v>
-      </c>
-      <c r="D20" s="22"/>
-    </row>
-    <row r="21" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A21" s="21" t="s">
-        <v>34</v>
-      </c>
       <c r="B21" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C21" s="22" t="n">
-        <v>42554</v>
+        <v>42646</v>
       </c>
       <c r="D21" s="22"/>
     </row>
     <row r="22" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A22" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="22" t="n">
+        <v>42677</v>
+      </c>
+      <c r="D22" s="22"/>
+    </row>
+    <row r="23" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A23" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="22" t="n">
-        <v>42585</v>
-      </c>
-      <c r="D22" s="22"/>
-    </row>
-    <row r="23" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A23" s="21" t="s">
-        <v>36</v>
-      </c>
       <c r="B23" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C23" s="22" t="n">
-        <v>42616</v>
+        <v>42707</v>
       </c>
       <c r="D23" s="22"/>
     </row>
     <row r="24" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A24" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="23" t="n">
+        <v>42738</v>
+      </c>
+      <c r="D24" s="24"/>
+    </row>
+    <row r="25" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="25"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+    </row>
+    <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="22" t="n">
-        <v>42646</v>
-      </c>
-      <c r="D24" s="22"/>
-    </row>
-    <row r="25" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A25" s="21" t="s">
+      <c r="B26" s="11"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+    </row>
+    <row r="27" customFormat="false" ht="59.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
+    </row>
+    <row r="28" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="22" t="n">
-        <v>42677</v>
-      </c>
-      <c r="D25" s="22"/>
-    </row>
-    <row r="26" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A26" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="22" t="n">
-        <v>42707</v>
-      </c>
-      <c r="D26" s="22"/>
-    </row>
-    <row r="27" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A27" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="23" t="n">
-        <v>42738</v>
-      </c>
-      <c r="D27" s="24"/>
-    </row>
-    <row r="28" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="25"/>
-      <c r="B28" s="15"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="26"/>
       <c r="D28" s="27"/>
     </row>
-    <row r="29" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="11"/>
+    <row r="29" customFormat="false" ht="53.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="29"/>
       <c r="C29" s="26"/>
       <c r="D29" s="27"/>
     </row>
-    <row r="30" customFormat="false" ht="59.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="26"/>
+    <row r="30" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="27"/>
       <c r="D30" s="27"/>
     </row>
-    <row r="31" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="26"/>
+    <row r="31" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="30"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="27"/>
     </row>
-    <row r="32" customFormat="false" ht="53.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
-    </row>
-    <row r="33" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-    </row>
-    <row r="34" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-    </row>
-    <row r="35" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="0.861111111111111" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4659,10 +4778,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C58" activeCellId="0" sqref="C58"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E49" activeCellId="0" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4670,84 +4789,87 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0816326530612"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="10" width="53.7244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1377551020408"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.5816326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.1632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="35" t="n">
+      <c r="B4" s="34" t="n">
         <f aca="false">SUM(D36:D50)*12</f>
         <v>766450.56</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>51</v>
+      <c r="C4" s="33" t="s">
+        <v>47</v>
       </c>
       <c r="D4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="35" t="n">
+      <c r="A5" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="34" t="n">
         <f aca="false">SUM(D14:D35)*12</f>
         <v>925439.28</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>53</v>
+      <c r="C5" s="33" t="s">
+        <v>49</v>
       </c>
       <c r="D5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="35" t="n">
+      <c r="A6" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="34" t="n">
         <f aca="false">SUM(B4:B5)</f>
         <v>1691889.84</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>55</v>
+      <c r="C6" s="33" t="s">
+        <v>51</v>
       </c>
       <c r="D6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="35" t="n">
+      <c r="A7" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="34" t="n">
         <f aca="false">B6/12</f>
         <v>140990.82</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>57</v>
+      <c r="C7" s="35" t="s">
+        <v>53</v>
       </c>
       <c r="D7" s="0"/>
     </row>
@@ -4770,476 +4892,750 @@
       <c r="D10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="38" t="s">
+      <c r="B14" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C14" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D14" s="42" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="39"/>
+      <c r="B15" s="40" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="40" t="s">
+      <c r="C15" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="D15" s="44" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="39"/>
+      <c r="B16" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C16" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="43" t="n">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="40"/>
-      <c r="B15" s="41" t="s">
+      <c r="D16" s="44" t="n">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="39"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="D17" s="44" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="39"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="45" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="40"/>
-      <c r="B16" s="46" t="s">
+      <c r="D18" s="44" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="39"/>
+      <c r="B19" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C19" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="45" t="n">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="40"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="47" t="s">
+      <c r="D19" s="44" t="n">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="39"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="45" t="n">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="40"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47" t="s">
+      <c r="D20" s="44" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="39"/>
+      <c r="B21" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="45" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="40"/>
-      <c r="B19" s="46" t="s">
+      <c r="C21" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="D21" s="44" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="39"/>
+      <c r="B22" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="45" t="n">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="40"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47" t="s">
+      <c r="C22" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="45" t="n">
+      <c r="D22" s="44" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="39"/>
+      <c r="B23" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="44" t="n">
+        <v>38900</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="39"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="44" t="n">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="39"/>
+      <c r="B25" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="44" t="n">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="39"/>
+      <c r="B26" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="48"/>
+      <c r="D26" s="44" t="n">
+        <v>16032.94</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="39"/>
+      <c r="B27" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="50" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="39"/>
+      <c r="B28" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="53" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="39"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="44" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="39"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="44" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="39"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="44" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="39"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="44" t="n">
         <v>350</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="40"/>
-      <c r="B21" s="41" t="s">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="39"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="44" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="39"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="44" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="39"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="44" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E36" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="45" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="40"/>
-      <c r="B22" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="45" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="40"/>
-      <c r="B23" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="45" t="n">
-        <v>38900</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="40"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="45" t="n">
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="40"/>
-      <c r="B25" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="45" t="n">
-        <v>4900</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="40"/>
-      <c r="B26" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="45" t="n">
-        <v>16032.94</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="40"/>
-      <c r="B27" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="51" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="40"/>
-      <c r="B28" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="54" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="40"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="45" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="40"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="45" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="40"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="45" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="40"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="45" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="40"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="45" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="40"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="49" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="54"/>
+      <c r="C37" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="45" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="40"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="49" t="s">
+      <c r="D37" s="56" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E37" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="45" t="n">
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="54"/>
+      <c r="C38" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="56" t="n">
+        <v>5370.88</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="54"/>
+      <c r="C39" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="56" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="54"/>
+      <c r="C40" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="56" t="n">
+        <v>7000</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="54"/>
+      <c r="C41" s="57" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="56" t="s">
+      <c r="D41" s="56" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="54"/>
+      <c r="C42" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="56" t="n">
+        <v>3500</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="54"/>
+      <c r="C43" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="56" t="n">
+        <v>2500</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="54"/>
+      <c r="C44" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="56" t="n">
+        <v>5500</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="54"/>
+      <c r="C45" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="56" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="54"/>
+      <c r="C46" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="56" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="54"/>
+      <c r="C47" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="56" t="n">
+        <v>4500</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="54"/>
+      <c r="C48" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="56" t="n">
+        <v>2500</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="54"/>
+      <c r="C49" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" s="56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="54"/>
+      <c r="C50" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="56" t="n">
+        <v>4500</v>
+      </c>
+      <c r="E50" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="57" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="55"/>
-      <c r="C37" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" s="57" t="n">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="55"/>
-      <c r="C38" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" s="57" t="n">
-        <v>5370.88</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="55"/>
-      <c r="C39" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="57" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="55"/>
-      <c r="C40" s="56" t="s">
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="0"/>
+      <c r="D51" s="0"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="0"/>
+      <c r="D52" s="0"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="0"/>
+      <c r="D53" s="59"/>
+    </row>
+    <row r="54" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="0"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="0"/>
+      <c r="D55" s="0"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="0"/>
+      <c r="D56" s="0"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="0"/>
+      <c r="D57" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="0"/>
+      <c r="D58" s="0"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="0"/>
+      <c r="D59" s="0"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="61"/>
+      <c r="C60" s="0"/>
+      <c r="D60" s="0"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="61"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="0"/>
+      <c r="D61" s="0"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" s="62"/>
+      <c r="C62" s="0"/>
+      <c r="D62" s="0"/>
+    </row>
+    <row r="63" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="63"/>
+      <c r="C63" s="0"/>
+      <c r="D63" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D64" s="60" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="57" t="n">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="55"/>
-      <c r="C41" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" s="57" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="55"/>
-      <c r="C42" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="57" t="n">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="55"/>
-      <c r="C43" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" s="57" t="n">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="55"/>
-      <c r="C44" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="D44" s="57" t="n">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="55"/>
-      <c r="C45" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="D45" s="57" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="55"/>
-      <c r="C46" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="D46" s="57" t="n">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="55"/>
-      <c r="C47" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47" s="57" t="n">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="55"/>
-      <c r="C48" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" s="57" t="n">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="55"/>
-      <c r="C49" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="D49" s="57" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="55"/>
-      <c r="C50" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="D50" s="57" t="n">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="B60" s="58"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="58"/>
-      <c r="B61" s="58"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B62" s="59"/>
-    </row>
-    <row r="63" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="B63" s="60"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="B64" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="C64" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="D64" s="62" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="B65" s="63" t="n">
+      <c r="B65" s="65" t="n">
         <v>960</v>
       </c>
-      <c r="C65" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="D65" s="64" t="n">
+      <c r="C65" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D65" s="66" t="n">
         <f aca="false">960/12</f>
         <v>80</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="B66" s="63" t="n">
-        <v>750</v>
-      </c>
-      <c r="C66" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="D66" s="65" t="n">
-        <v>63</v>
+    <row r="66" customFormat="false" ht="88.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B66" s="65" t="n">
+        <f aca="false">B65*0.8</f>
+        <v>768</v>
+      </c>
+      <c r="C66" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D66" s="67" t="n">
+        <f aca="false">B66/12</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="0"/>
+      <c r="D67" s="0"/>
+    </row>
+    <row r="68" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="0"/>
+      <c r="D68" s="60" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="0"/>
+      <c r="D69" s="0"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70" s="62"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="62"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="62"/>
+    </row>
+    <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="D71" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="E71" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="F71" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="G71" s="68" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="C72" s="70" t="n">
+        <v>40</v>
+      </c>
+      <c r="D72" s="71" t="n">
+        <f aca="false">(SUM(D37,D38,D50)/3/180)</f>
+        <v>29.3905185185185</v>
+      </c>
+      <c r="E72" s="64" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F72" s="64" t="n">
+        <f aca="false">PRODUCT(E72,C72)</f>
+        <v>60</v>
+      </c>
+      <c r="G72" s="72" t="n">
+        <f aca="false">PRODUCT(D72,F72)</f>
+        <v>1763.43111111111</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="C73" s="70" t="n">
+        <v>15</v>
+      </c>
+      <c r="D73" s="71" t="n">
+        <f aca="false">(SUM(D37,D38,D50)/3)/180</f>
+        <v>29.3905185185185</v>
+      </c>
+      <c r="E73" s="64" t="n">
+        <v>4</v>
+      </c>
+      <c r="F73" s="64" t="n">
+        <f aca="false">PRODUCT(E73,C73)</f>
+        <v>60</v>
+      </c>
+      <c r="G73" s="72" t="n">
+        <f aca="false">PRODUCT(D73,F73)</f>
+        <v>1763.43111111111</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="C74" s="70" t="n">
+        <v>9</v>
+      </c>
+      <c r="D74" s="71" t="n">
+        <f aca="false">(SUM(D37,D38,D50)/3)/180</f>
+        <v>29.3905185185185</v>
+      </c>
+      <c r="E74" s="64" t="n">
+        <v>6</v>
+      </c>
+      <c r="F74" s="64" t="n">
+        <f aca="false">PRODUCT(E74,C74)</f>
+        <v>54</v>
+      </c>
+      <c r="G74" s="72" t="n">
+        <f aca="false">PRODUCT(D74,F74)</f>
+        <v>1587.088</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75" s="70" t="n">
+        <f aca="false">SUM(C72:C74)</f>
+        <v>64</v>
+      </c>
+      <c r="D75" s="73"/>
+      <c r="F75" s="64" t="n">
+        <f aca="false">SUM(F72:F74)</f>
+        <v>174</v>
+      </c>
+      <c r="G75" s="72" t="n">
+        <f aca="false">SUM(G72:G74)</f>
+        <v>5113.95022222222</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D76" s="0"/>
+    </row>
+    <row r="77" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77" s="61"/>
+      <c r="D77" s="60" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="B78" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="D78" s="75"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="B79" s="74" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="B80" s="74" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="B81" s="74" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="60" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A14:A35"/>
@@ -5251,6 +5647,8 @@
     <mergeCell ref="A60:B61"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A63:B63"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="A77:B77"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -5269,8 +5667,8 @@
   </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -5284,165 +5682,165 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="66" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
+      <c r="A1" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
+      <c r="A2" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="68" t="s">
-        <v>124</v>
+      <c r="A3" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="78" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="78" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="69" t="n">
+      <c r="A4" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="79" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="79" t="n">
         <v>3313482553</v>
       </c>
-      <c r="D4" s="70" t="s">
-        <v>127</v>
+      <c r="D4" s="80" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="70" t="s">
-        <v>129</v>
+      <c r="A5" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="79" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="69" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="69" t="n">
+      <c r="A6" s="79" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="79" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="79" t="n">
         <v>3318039095</v>
       </c>
-      <c r="D6" s="70" t="s">
-        <v>132</v>
+      <c r="D6" s="80" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="69" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>135</v>
+      <c r="A7" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="80" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="69" t="s">
+      <c r="A8" s="79" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="69" t="n">
+      <c r="C8" s="79" t="n">
         <v>3312448000</v>
       </c>
-      <c r="D8" s="70" t="s">
-        <v>137</v>
+      <c r="D8" s="80" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="71" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="71" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="72" t="s">
-        <v>139</v>
+      <c r="A9" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="81"/>
+      <c r="D9" s="82" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="71" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="72" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="71" t="n">
+      <c r="A10" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="81" t="n">
         <v>3316367365</v>
       </c>
-      <c r="D10" s="72" t="s">
-        <v>141</v>
+      <c r="D10" s="82" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="71" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72" t="s">
-        <v>142</v>
+      <c r="A11" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="B12" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="72"/>
+      <c r="A12" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="82"/>
       <c r="D12" s="12" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="73" t="s">
-        <v>146</v>
-      </c>
-      <c r="B13" s="69" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="69" t="n">
+      <c r="A13" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="79" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="79" t="n">
         <v>3318039095</v>
       </c>
-      <c r="D13" s="70" t="s">
-        <v>132</v>
+      <c r="D13" s="80" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5458,21 +5856,21 @@
       <c r="D15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
+      <c r="A16" s="83" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0"/>
       <c r="B17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="75"/>
-      <c r="B18" s="76" t="s">
-        <v>148</v>
+      <c r="A18" s="84"/>
+      <c r="B18" s="85" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5510,8 +5908,8 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5525,108 +5923,108 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="77" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="78" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" s="78" t="s">
-        <v>151</v>
-      </c>
-      <c r="D1" s="78" t="s">
-        <v>152</v>
-      </c>
-      <c r="E1" s="78" t="s">
-        <v>153</v>
+      <c r="A1" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="87" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="87" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="85.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="79" t="n">
+      <c r="A2" s="88" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="80" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="81" t="n">
+      <c r="B2" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="90" t="n">
         <v>42380</v>
       </c>
-      <c r="E2" s="81" t="n">
+      <c r="E2" s="90" t="n">
         <v>42380</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
+      <c r="A3" s="91"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="82"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="82"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="82"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5646,9 +6044,9 @@
   </sheetPr>
   <dimension ref="1:10"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -6730,13 +7128,13 @@
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="84" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
+      <c r="A2" s="93" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
       <c r="H2" s="0"/>
@@ -7758,20 +8156,20 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="85" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="85" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="85" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="85" t="s">
-        <v>159</v>
-      </c>
-      <c r="E3" s="85" t="s">
-        <v>160</v>
+      <c r="A3" s="94" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="94" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="94" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="94" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="94" t="s">
+        <v>186</v>
       </c>
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
@@ -8793,21 +9191,21 @@
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="86" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="86" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="87" t="s">
-        <v>162</v>
-      </c>
-      <c r="D4" s="87" t="s">
-        <v>163</v>
-      </c>
-      <c r="E4" s="88" t="s">
-        <v>164</v>
+    <row r="4" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="95" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="95" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="96" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="96" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="97" t="s">
+        <v>190</v>
       </c>
       <c r="F4" s="0"/>
       <c r="G4" s="0"/>
@@ -9829,67 +10227,67 @@
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" s="91" customFormat="true" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="89" t="s">
-        <v>165</v>
-      </c>
-      <c r="B5" s="90" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="87" t="s">
-        <v>166</v>
-      </c>
-      <c r="D5" s="87" t="s">
-        <v>167</v>
-      </c>
-      <c r="E5" s="90" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" s="91" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="89" t="s">
-        <v>169</v>
-      </c>
-      <c r="B6" s="90" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="87" t="s">
-        <v>166</v>
-      </c>
-      <c r="D6" s="87" t="s">
-        <v>170</v>
-      </c>
-      <c r="E6" s="90" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" s="91" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="89"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="90"/>
-    </row>
-    <row r="8" s="91" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="89"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="90"/>
+    <row r="5" s="100" customFormat="true" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="98" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="99" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="96" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="96" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" s="99" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" s="100" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="98" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="99" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="96" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="96" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" s="99" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" s="100" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="98"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="99"/>
+    </row>
+    <row r="8" s="100" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="98"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="99"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="89"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="89"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9913,8 +10311,8 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -9942,7 +10340,7 @@
     </row>
     <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -9952,175 +10350,177 @@
       <c r="I2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="92" t="s">
-        <v>173</v>
-      </c>
-      <c r="B3" s="92" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="92" t="s">
-        <v>175</v>
-      </c>
-      <c r="D3" s="92" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" s="92" t="s">
-        <v>177</v>
-      </c>
-      <c r="F3" s="92" t="s">
-        <v>178</v>
+      <c r="A3" s="101" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="101" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="101" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="101" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" s="101" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3" s="101" t="s">
+        <v>204</v>
       </c>
       <c r="I3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="B4" s="94" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="94" t="s">
-        <v>181</v>
-      </c>
-      <c r="D4" s="95" t="n">
+    <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="102" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="103" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="103" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="104" t="n">
         <v>42380</v>
       </c>
-      <c r="E4" s="95" t="n">
+      <c r="E4" s="104" t="n">
         <v>42373</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="I4" s="96"/>
+      <c r="F4" s="103"/>
+      <c r="I4" s="105"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="93" t="s">
-        <v>182</v>
-      </c>
-      <c r="B5" s="94" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" s="94" t="s">
-        <v>181</v>
-      </c>
-      <c r="D5" s="95" t="n">
+      <c r="A5" s="102" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="103" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="103" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="104" t="n">
         <v>42380</v>
       </c>
-      <c r="E5" s="95" t="n">
+      <c r="E5" s="104" t="n">
         <v>42373</v>
       </c>
-      <c r="F5" s="94"/>
-      <c r="I5" s="96"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="93" t="s">
-        <v>183</v>
-      </c>
-      <c r="B6" s="94" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" s="94" t="s">
-        <v>185</v>
-      </c>
-      <c r="D6" s="95" t="n">
+      <c r="F5" s="103"/>
+      <c r="I5" s="105"/>
+    </row>
+    <row r="6" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="102" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="103" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="103" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="104" t="n">
         <v>42380</v>
       </c>
-      <c r="E6" s="95" t="n">
+      <c r="E6" s="104" t="n">
         <v>42373</v>
       </c>
-      <c r="F6" s="94"/>
-      <c r="I6" s="96"/>
+      <c r="F6" s="103" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" s="105"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="93" t="s">
-        <v>186</v>
-      </c>
-      <c r="B7" s="94" t="s">
-        <v>180</v>
-      </c>
-      <c r="C7" s="94" t="s">
-        <v>181</v>
-      </c>
-      <c r="D7" s="95" t="n">
+      <c r="A7" s="102" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" s="103" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="103" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="104" t="n">
         <v>42380</v>
       </c>
-      <c r="E7" s="95" t="n">
+      <c r="E7" s="104" t="n">
         <v>42373</v>
       </c>
-      <c r="F7" s="94"/>
-      <c r="I7" s="96"/>
+      <c r="F7" s="103"/>
+      <c r="I7" s="105"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="93" t="s">
-        <v>187</v>
-      </c>
-      <c r="B8" s="94" t="s">
-        <v>180</v>
-      </c>
-      <c r="C8" s="94" t="s">
-        <v>181</v>
-      </c>
-      <c r="D8" s="95" t="n">
+      <c r="A8" s="102" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="103" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="103" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="104" t="n">
         <v>42380</v>
       </c>
-      <c r="E8" s="95" t="n">
+      <c r="E8" s="104" t="n">
         <v>42373</v>
       </c>
-      <c r="F8" s="94"/>
+      <c r="F8" s="103"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="97"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="94"/>
+      <c r="A9" s="106"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="103"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="93"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="94"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="103"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="93"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="94"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="103"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="93"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="94"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="103"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="94"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
+      <c r="A13" s="103"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="94"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
+      <c r="A14" s="103"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="94"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
+      <c r="A15" s="103"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10144,8 +10544,8 @@
   </sheetPr>
   <dimension ref="A1:JA32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -10165,10 +10565,10 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="100"/>
+      <c r="A1" s="109"/>
       <c r="B1" s="0"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
       <c r="E1" s="0"/>
       <c r="F1" s="0"/>
       <c r="G1" s="0"/>
@@ -10209,19 +10609,19 @@
       <c r="JA1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="102" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
+      <c r="A2" s="111" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
       <c r="L2" s="0"/>
       <c r="M2" s="0"/>
       <c r="N2" s="0"/>
@@ -10243,31 +10643,31 @@
       <c r="AD2" s="0"/>
       <c r="AE2" s="0"/>
       <c r="AF2" s="0"/>
-      <c r="IR2" s="103" t="s">
-        <v>189</v>
-      </c>
-      <c r="IS2" s="103"/>
-      <c r="IT2" s="103"/>
-      <c r="IU2" s="103"/>
-      <c r="IV2" s="103"/>
-      <c r="IW2" s="103"/>
-      <c r="IX2" s="103"/>
-      <c r="IY2" s="103"/>
-      <c r="IZ2" s="103"/>
-      <c r="JA2" s="103"/>
+      <c r="IR2" s="112" t="s">
+        <v>217</v>
+      </c>
+      <c r="IS2" s="112"/>
+      <c r="IT2" s="112"/>
+      <c r="IU2" s="112"/>
+      <c r="IV2" s="112"/>
+      <c r="IW2" s="112"/>
+      <c r="IX2" s="112"/>
+      <c r="IY2" s="112"/>
+      <c r="IZ2" s="112"/>
+      <c r="JA2" s="112"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="102"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
       <c r="L3" s="0"/>
       <c r="M3" s="0"/>
       <c r="N3" s="0"/>
@@ -10287,11 +10687,11 @@
       <c r="AB3" s="0"/>
       <c r="AC3" s="0"/>
       <c r="AD3" s="0"/>
-      <c r="AE3" s="104" t="s">
-        <v>190</v>
-      </c>
-      <c r="AF3" s="104" t="s">
-        <v>191</v>
+      <c r="AE3" s="113" t="s">
+        <v>218</v>
+      </c>
+      <c r="AF3" s="113" t="s">
+        <v>219</v>
       </c>
       <c r="IS3" s="0"/>
       <c r="IT3" s="0"/>
@@ -10303,38 +10703,38 @@
       <c r="IZ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="105" t="s">
-        <v>192</v>
-      </c>
-      <c r="B4" s="106" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="107" t="s">
-        <v>194</v>
-      </c>
-      <c r="D4" s="107" t="s">
-        <v>195</v>
-      </c>
-      <c r="E4" s="107" t="s">
-        <v>196</v>
-      </c>
-      <c r="F4" s="107" t="s">
-        <v>197</v>
-      </c>
-      <c r="G4" s="107" t="s">
-        <v>198</v>
-      </c>
-      <c r="H4" s="107" t="s">
-        <v>199</v>
-      </c>
-      <c r="I4" s="107" t="s">
-        <v>200</v>
-      </c>
-      <c r="J4" s="108" t="s">
-        <v>201</v>
-      </c>
-      <c r="K4" s="107" t="s">
-        <v>202</v>
+      <c r="A4" s="114" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="115" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="116" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="116" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4" s="116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F4" s="116" t="s">
+        <v>225</v>
+      </c>
+      <c r="G4" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="H4" s="116" t="s">
+        <v>227</v>
+      </c>
+      <c r="I4" s="116" t="s">
+        <v>228</v>
+      </c>
+      <c r="J4" s="117" t="s">
+        <v>229</v>
+      </c>
+      <c r="K4" s="116" t="s">
+        <v>230</v>
       </c>
       <c r="L4" s="0"/>
       <c r="M4" s="0"/>
@@ -10355,11 +10755,11 @@
       <c r="AB4" s="0"/>
       <c r="AC4" s="0"/>
       <c r="AD4" s="0"/>
-      <c r="AE4" s="109" t="s">
-        <v>190</v>
-      </c>
-      <c r="AF4" s="109" t="s">
-        <v>191</v>
+      <c r="AE4" s="118" t="s">
+        <v>218</v>
+      </c>
+      <c r="AF4" s="118" t="s">
+        <v>219</v>
       </c>
       <c r="IS4" s="0"/>
       <c r="IT4" s="0"/>
@@ -10371,39 +10771,39 @@
       <c r="IZ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="54.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="110" t="n">
+      <c r="A5" s="119" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="111" t="s">
-        <v>203</v>
-      </c>
-      <c r="C5" s="110" t="n">
+      <c r="B5" s="120" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="119" t="n">
         <v>5</v>
       </c>
-      <c r="D5" s="112" t="n">
+      <c r="D5" s="121" t="n">
         <v>0.3</v>
       </c>
-      <c r="E5" s="110" t="n">
+      <c r="E5" s="119" t="n">
         <f aca="false">PRODUCT(A5:D5)</f>
         <v>1.5</v>
       </c>
-      <c r="F5" s="110" t="n">
+      <c r="F5" s="119" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="111" t="s">
-        <v>204</v>
-      </c>
-      <c r="H5" s="111" t="s">
-        <v>205</v>
-      </c>
-      <c r="I5" s="110" t="s">
-        <v>131</v>
-      </c>
-      <c r="J5" s="113" t="s">
-        <v>206</v>
-      </c>
-      <c r="K5" s="114" t="s">
-        <v>207</v>
+      <c r="G5" s="120" t="s">
+        <v>232</v>
+      </c>
+      <c r="H5" s="120" t="s">
+        <v>233</v>
+      </c>
+      <c r="I5" s="119" t="s">
+        <v>157</v>
+      </c>
+      <c r="J5" s="122" t="s">
+        <v>234</v>
+      </c>
+      <c r="K5" s="123" t="s">
+        <v>235</v>
       </c>
       <c r="L5" s="0"/>
       <c r="M5" s="0"/>
@@ -10426,70 +10826,70 @@
       <c r="AD5" s="0"/>
       <c r="AE5" s="0"/>
       <c r="AF5" s="0"/>
-      <c r="IS5" s="115" t="s">
-        <v>208</v>
-      </c>
-      <c r="IT5" s="116" t="s">
-        <v>209</v>
-      </c>
-      <c r="IU5" s="117" t="n">
+      <c r="IS5" s="124" t="s">
+        <v>236</v>
+      </c>
+      <c r="IT5" s="125" t="s">
+        <v>237</v>
+      </c>
+      <c r="IU5" s="126" t="n">
         <v>0.9</v>
       </c>
-      <c r="IV5" s="118" t="n">
+      <c r="IV5" s="127" t="n">
         <f aca="false">(IV9*IU5)</f>
         <v>0.9</v>
       </c>
-      <c r="IW5" s="119" t="n">
+      <c r="IW5" s="128" t="n">
         <f aca="false">(IW9*IU5)</f>
         <v>1.8</v>
       </c>
-      <c r="IX5" s="120" t="n">
+      <c r="IX5" s="129" t="n">
         <f aca="false">(IX9*IU5)</f>
         <v>2.7</v>
       </c>
-      <c r="IY5" s="121" t="n">
+      <c r="IY5" s="130" t="n">
         <f aca="false">(IY9*IU5)</f>
         <v>3.6</v>
       </c>
-      <c r="IZ5" s="122" t="n">
+      <c r="IZ5" s="131" t="n">
         <f aca="false">(IZ9*IU5)</f>
         <v>4.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="110" t="n">
+      <c r="A6" s="119" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="111" t="s">
-        <v>210</v>
-      </c>
-      <c r="C6" s="110" t="n">
+      <c r="B6" s="120" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="119" t="n">
         <v>4</v>
       </c>
-      <c r="D6" s="112" t="n">
+      <c r="D6" s="121" t="n">
         <v>0.2</v>
       </c>
-      <c r="E6" s="110" t="n">
+      <c r="E6" s="119" t="n">
         <f aca="false">PRODUCT(C6:D6)</f>
         <v>0.8</v>
       </c>
-      <c r="F6" s="110" t="n">
+      <c r="F6" s="119" t="n">
         <v>3</v>
       </c>
-      <c r="G6" s="111" t="s">
-        <v>211</v>
-      </c>
-      <c r="H6" s="111" t="s">
-        <v>212</v>
-      </c>
-      <c r="I6" s="110" t="s">
-        <v>131</v>
-      </c>
-      <c r="J6" s="113" t="s">
-        <v>206</v>
-      </c>
-      <c r="K6" s="114" t="s">
-        <v>207</v>
+      <c r="G6" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="H6" s="120" t="s">
+        <v>240</v>
+      </c>
+      <c r="I6" s="119" t="s">
+        <v>157</v>
+      </c>
+      <c r="J6" s="122" t="s">
+        <v>234</v>
+      </c>
+      <c r="K6" s="123" t="s">
+        <v>235</v>
       </c>
       <c r="L6" s="0"/>
       <c r="M6" s="0"/>
@@ -10512,68 +10912,68 @@
       <c r="AD6" s="0"/>
       <c r="AE6" s="0"/>
       <c r="AF6" s="0"/>
-      <c r="IS6" s="115"/>
-      <c r="IT6" s="116" t="s">
-        <v>213</v>
-      </c>
-      <c r="IU6" s="117" t="n">
+      <c r="IS6" s="124"/>
+      <c r="IT6" s="125" t="s">
+        <v>241</v>
+      </c>
+      <c r="IU6" s="126" t="n">
         <v>0.5</v>
       </c>
-      <c r="IV6" s="123" t="n">
+      <c r="IV6" s="132" t="n">
         <f aca="false">(IV9*IU6)</f>
         <v>0.5</v>
       </c>
-      <c r="IW6" s="124" t="n">
+      <c r="IW6" s="133" t="n">
         <f aca="false">(IW9*IU6)</f>
         <v>1</v>
       </c>
-      <c r="IX6" s="125" t="n">
+      <c r="IX6" s="134" t="n">
         <f aca="false">(IX9*IU6)</f>
         <v>1.5</v>
       </c>
-      <c r="IY6" s="125" t="n">
+      <c r="IY6" s="134" t="n">
         <f aca="false">(IY9*IU6)</f>
         <v>2</v>
       </c>
-      <c r="IZ6" s="126" t="n">
+      <c r="IZ6" s="135" t="n">
         <f aca="false">(IZ9*IU6)</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="110" t="n">
+      <c r="A7" s="119" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="111" t="s">
-        <v>214</v>
-      </c>
-      <c r="C7" s="110" t="n">
+      <c r="B7" s="120" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="119" t="n">
         <v>5</v>
       </c>
-      <c r="D7" s="112" t="n">
+      <c r="D7" s="121" t="n">
         <v>0.01</v>
       </c>
-      <c r="E7" s="110" t="n">
+      <c r="E7" s="119" t="n">
         <f aca="false">PRODUCT(C7:D7)</f>
         <v>0.05</v>
       </c>
-      <c r="F7" s="110" t="n">
+      <c r="F7" s="119" t="n">
         <v>4</v>
       </c>
-      <c r="G7" s="111" t="s">
-        <v>215</v>
-      </c>
-      <c r="H7" s="111" t="s">
-        <v>216</v>
-      </c>
-      <c r="I7" s="110" t="s">
+      <c r="G7" s="120" t="s">
+        <v>243</v>
+      </c>
+      <c r="H7" s="120" t="s">
+        <v>244</v>
+      </c>
+      <c r="I7" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="113" t="s">
-        <v>206</v>
-      </c>
-      <c r="K7" s="114" t="s">
-        <v>207</v>
+      <c r="J7" s="122" t="s">
+        <v>234</v>
+      </c>
+      <c r="K7" s="123" t="s">
+        <v>235</v>
       </c>
       <c r="L7" s="0"/>
       <c r="M7" s="0"/>
@@ -10596,68 +10996,68 @@
       <c r="AD7" s="0"/>
       <c r="AE7" s="0"/>
       <c r="AF7" s="0"/>
-      <c r="IS7" s="115"/>
-      <c r="IT7" s="116" t="s">
-        <v>217</v>
-      </c>
-      <c r="IU7" s="117" t="n">
+      <c r="IS7" s="124"/>
+      <c r="IT7" s="125" t="s">
+        <v>245</v>
+      </c>
+      <c r="IU7" s="126" t="n">
         <v>0.3</v>
       </c>
-      <c r="IV7" s="127" t="n">
+      <c r="IV7" s="136" t="n">
         <f aca="false">(IV9*IU7)</f>
         <v>0.3</v>
       </c>
-      <c r="IW7" s="128" t="n">
+      <c r="IW7" s="137" t="n">
         <f aca="false">(IW9*IU7)</f>
         <v>0.6</v>
       </c>
-      <c r="IX7" s="125" t="n">
+      <c r="IX7" s="134" t="n">
         <f aca="false">(IX9*IU7)</f>
         <v>0.9</v>
       </c>
-      <c r="IY7" s="125" t="n">
+      <c r="IY7" s="134" t="n">
         <f aca="false">(IY9*IU7)</f>
         <v>1.2</v>
       </c>
-      <c r="IZ7" s="129" t="n">
+      <c r="IZ7" s="138" t="n">
         <f aca="false">(IZ9*IU7)</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="110" t="n">
+      <c r="A8" s="119" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="111" t="s">
-        <v>218</v>
-      </c>
-      <c r="C8" s="110" t="n">
+      <c r="B8" s="120" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="119" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="112" t="n">
+      <c r="D8" s="121" t="n">
         <v>0.4</v>
       </c>
-      <c r="E8" s="110" t="n">
+      <c r="E8" s="119" t="n">
         <f aca="false">PRODUCT(C8:D8)</f>
         <v>2</v>
       </c>
-      <c r="F8" s="110" t="n">
+      <c r="F8" s="119" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="111" t="s">
-        <v>219</v>
-      </c>
-      <c r="H8" s="111" t="s">
-        <v>220</v>
-      </c>
-      <c r="I8" s="110" t="s">
+      <c r="G8" s="120" t="s">
+        <v>247</v>
+      </c>
+      <c r="H8" s="120" t="s">
+        <v>248</v>
+      </c>
+      <c r="I8" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="113" t="s">
-        <v>206</v>
-      </c>
-      <c r="K8" s="114" t="s">
-        <v>207</v>
+      <c r="J8" s="122" t="s">
+        <v>234</v>
+      </c>
+      <c r="K8" s="123" t="s">
+        <v>235</v>
       </c>
       <c r="L8" s="0"/>
       <c r="M8" s="0"/>
@@ -10680,68 +11080,68 @@
       <c r="AD8" s="0"/>
       <c r="AE8" s="0"/>
       <c r="AF8" s="0"/>
-      <c r="IS8" s="115"/>
-      <c r="IT8" s="116" t="s">
-        <v>213</v>
-      </c>
-      <c r="IU8" s="130" t="n">
+      <c r="IS8" s="124"/>
+      <c r="IT8" s="125" t="s">
+        <v>241</v>
+      </c>
+      <c r="IU8" s="139" t="n">
         <v>0.1</v>
       </c>
-      <c r="IV8" s="131" t="n">
+      <c r="IV8" s="140" t="n">
         <f aca="false">(IV9*IU8)</f>
         <v>0.1</v>
       </c>
-      <c r="IW8" s="132" t="n">
+      <c r="IW8" s="141" t="n">
         <f aca="false">(IW9*IU8)</f>
         <v>0.2</v>
       </c>
-      <c r="IX8" s="133" t="n">
+      <c r="IX8" s="142" t="n">
         <f aca="false">(IX9*IV8)</f>
         <v>0.3</v>
       </c>
-      <c r="IY8" s="133" t="n">
+      <c r="IY8" s="142" t="n">
         <f aca="false">(IY9*IU8)</f>
         <v>0.4</v>
       </c>
-      <c r="IZ8" s="134" t="n">
+      <c r="IZ8" s="143" t="n">
         <f aca="false">(IZ9*IU8)</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="135" t="n">
+      <c r="A9" s="144" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="111" t="s">
-        <v>221</v>
-      </c>
-      <c r="C9" s="110" t="n">
+      <c r="B9" s="120" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="119" t="n">
         <v>5</v>
       </c>
-      <c r="D9" s="112" t="n">
+      <c r="D9" s="121" t="n">
         <v>0.2</v>
       </c>
-      <c r="E9" s="110" t="n">
+      <c r="E9" s="119" t="n">
         <f aca="false">PRODUCT(C9:D9)</f>
         <v>1</v>
       </c>
-      <c r="F9" s="110" t="n">
+      <c r="F9" s="119" t="n">
         <v>3</v>
       </c>
-      <c r="G9" s="111" t="s">
-        <v>222</v>
-      </c>
-      <c r="H9" s="111" t="s">
-        <v>223</v>
-      </c>
-      <c r="I9" s="110" t="s">
+      <c r="G9" s="120" t="s">
+        <v>250</v>
+      </c>
+      <c r="H9" s="120" t="s">
+        <v>251</v>
+      </c>
+      <c r="I9" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="113" t="s">
-        <v>206</v>
-      </c>
-      <c r="K9" s="114" t="s">
-        <v>207</v>
+      <c r="J9" s="122" t="s">
+        <v>234</v>
+      </c>
+      <c r="K9" s="123" t="s">
+        <v>235</v>
       </c>
       <c r="L9" s="0"/>
       <c r="M9" s="0"/>
@@ -10764,59 +11164,59 @@
       <c r="AD9" s="0"/>
       <c r="AE9" s="0"/>
       <c r="AF9" s="0"/>
-      <c r="IS9" s="136"/>
+      <c r="IS9" s="145"/>
       <c r="IT9" s="0"/>
-      <c r="IU9" s="116"/>
-      <c r="IV9" s="117" t="n">
+      <c r="IU9" s="125"/>
+      <c r="IV9" s="126" t="n">
         <v>1</v>
       </c>
-      <c r="IW9" s="117" t="n">
+      <c r="IW9" s="126" t="n">
         <v>2</v>
       </c>
-      <c r="IX9" s="117" t="n">
+      <c r="IX9" s="126" t="n">
         <v>3</v>
       </c>
-      <c r="IY9" s="117" t="n">
+      <c r="IY9" s="126" t="n">
         <v>4</v>
       </c>
-      <c r="IZ9" s="137" t="n">
+      <c r="IZ9" s="146" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="138" t="n">
+      <c r="A10" s="147" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="139" t="s">
-        <v>224</v>
-      </c>
-      <c r="C10" s="110" t="n">
+      <c r="B10" s="148" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" s="119" t="n">
         <v>5</v>
       </c>
-      <c r="D10" s="112" t="n">
+      <c r="D10" s="121" t="n">
         <v>0.2</v>
       </c>
-      <c r="E10" s="110" t="n">
+      <c r="E10" s="119" t="n">
         <f aca="false">PRODUCT(C10:D10)</f>
         <v>1</v>
       </c>
-      <c r="F10" s="110" t="n">
+      <c r="F10" s="119" t="n">
         <v>3</v>
       </c>
-      <c r="G10" s="140" t="s">
-        <v>225</v>
-      </c>
-      <c r="H10" s="141" t="s">
-        <v>226</v>
-      </c>
-      <c r="I10" s="110" t="s">
+      <c r="G10" s="149" t="s">
+        <v>253</v>
+      </c>
+      <c r="H10" s="150" t="s">
+        <v>254</v>
+      </c>
+      <c r="I10" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="113" t="s">
-        <v>206</v>
-      </c>
-      <c r="K10" s="142" t="s">
-        <v>207</v>
+      <c r="J10" s="122" t="s">
+        <v>234</v>
+      </c>
+      <c r="K10" s="151" t="s">
+        <v>235</v>
       </c>
       <c r="L10" s="0"/>
       <c r="M10" s="0"/>
@@ -10839,42 +11239,42 @@
       <c r="AD10" s="0"/>
       <c r="AE10" s="0"/>
       <c r="AF10" s="0"/>
-      <c r="IS10" s="136"/>
+      <c r="IS10" s="145"/>
       <c r="IT10" s="0"/>
       <c r="IU10" s="0"/>
-      <c r="IV10" s="116" t="s">
-        <v>213</v>
-      </c>
-      <c r="IW10" s="116" t="s">
-        <v>217</v>
-      </c>
-      <c r="IX10" s="116" t="s">
-        <v>227</v>
-      </c>
-      <c r="IY10" s="116" t="s">
-        <v>228</v>
-      </c>
-      <c r="IZ10" s="143" t="s">
-        <v>209</v>
+      <c r="IV10" s="125" t="s">
+        <v>241</v>
+      </c>
+      <c r="IW10" s="125" t="s">
+        <v>245</v>
+      </c>
+      <c r="IX10" s="125" t="s">
+        <v>255</v>
+      </c>
+      <c r="IY10" s="125" t="s">
+        <v>256</v>
+      </c>
+      <c r="IZ10" s="152" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="138" t="n">
+      <c r="A11" s="147" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="139"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="138" t="n">
+      <c r="B11" s="148"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="147" t="n">
         <f aca="false">PRODUCT(C11:D11)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="138"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="147"/>
-      <c r="K11" s="145"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="154"/>
       <c r="L11" s="0"/>
       <c r="M11" s="0"/>
       <c r="N11" s="0"/>
@@ -10896,34 +11296,34 @@
       <c r="AD11" s="0"/>
       <c r="AE11" s="0"/>
       <c r="AF11" s="0"/>
-      <c r="IS11" s="136"/>
+      <c r="IS11" s="145"/>
       <c r="IT11" s="0"/>
-      <c r="IU11" s="117"/>
-      <c r="IV11" s="148" t="s">
-        <v>229</v>
-      </c>
-      <c r="IW11" s="148"/>
-      <c r="IX11" s="148"/>
-      <c r="IY11" s="148"/>
-      <c r="IZ11" s="148"/>
+      <c r="IU11" s="126"/>
+      <c r="IV11" s="157" t="s">
+        <v>257</v>
+      </c>
+      <c r="IW11" s="157"/>
+      <c r="IX11" s="157"/>
+      <c r="IY11" s="157"/>
+      <c r="IZ11" s="157"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="138" t="n">
+      <c r="A12" s="147" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="139"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="138" t="n">
+      <c r="B12" s="148"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="153"/>
+      <c r="E12" s="147" t="n">
         <f aca="false">PRODUCT(C12:D12)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="138"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="145"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="154"/>
       <c r="L12" s="0"/>
       <c r="M12" s="0"/>
       <c r="N12" s="0"/>
@@ -10945,32 +11345,32 @@
       <c r="AD12" s="0"/>
       <c r="AE12" s="0"/>
       <c r="AF12" s="0"/>
-      <c r="IS12" s="136"/>
+      <c r="IS12" s="145"/>
       <c r="IT12" s="0"/>
       <c r="IU12" s="0"/>
       <c r="IV12" s="0"/>
       <c r="IW12" s="0"/>
       <c r="IX12" s="0"/>
       <c r="IY12" s="0"/>
-      <c r="IZ12" s="149"/>
+      <c r="IZ12" s="158"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="138" t="n">
+      <c r="A13" s="147" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="139"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="138" t="n">
+      <c r="B13" s="148"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="153"/>
+      <c r="E13" s="147" t="n">
         <f aca="false">PRODUCT(C13:D13)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="138"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="145"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="156"/>
+      <c r="K13" s="154"/>
       <c r="L13" s="0"/>
       <c r="M13" s="0"/>
       <c r="N13" s="0"/>
@@ -10992,22 +11392,22 @@
       <c r="AD13" s="0"/>
       <c r="AE13" s="0"/>
       <c r="AF13" s="0"/>
-      <c r="IS13" s="136"/>
+      <c r="IS13" s="145"/>
       <c r="IT13" s="0"/>
-      <c r="IU13" s="109"/>
-      <c r="IV13" s="109"/>
-      <c r="IW13" s="109"/>
-      <c r="IX13" s="109"/>
-      <c r="IY13" s="109"/>
-      <c r="IZ13" s="150"/>
+      <c r="IU13" s="118"/>
+      <c r="IV13" s="118"/>
+      <c r="IW13" s="118"/>
+      <c r="IX13" s="118"/>
+      <c r="IY13" s="118"/>
+      <c r="IZ13" s="159"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="151"/>
-      <c r="B14" s="151"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
+      <c r="A14" s="160"/>
+      <c r="B14" s="160"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="160"/>
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
@@ -11036,12 +11436,12 @@
       <c r="AF14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="151"/>
-      <c r="B15" s="151"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
+      <c r="A15" s="160"/>
+      <c r="B15" s="160"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="160"/>
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
@@ -11070,12 +11470,12 @@
       <c r="AF15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="151"/>
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
+      <c r="A16" s="160"/>
+      <c r="B16" s="160"/>
+      <c r="C16" s="160"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="160"/>
       <c r="G16" s="0"/>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
@@ -11104,14 +11504,14 @@
       <c r="AF16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="152" t="s">
-        <v>230</v>
-      </c>
-      <c r="B17" s="152"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="151"/>
+      <c r="A17" s="161" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17" s="161"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="160"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="160"/>
       <c r="G17" s="0"/>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
@@ -11140,18 +11540,18 @@
       <c r="AF17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="153" t="s">
-        <v>231</v>
-      </c>
-      <c r="B18" s="154" t="s">
-        <v>232</v>
-      </c>
-      <c r="C18" s="153" t="s">
-        <v>233</v>
-      </c>
-      <c r="D18" s="151"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
+      <c r="A18" s="162" t="s">
+        <v>259</v>
+      </c>
+      <c r="B18" s="163" t="s">
+        <v>260</v>
+      </c>
+      <c r="C18" s="162" t="s">
+        <v>261</v>
+      </c>
+      <c r="D18" s="160"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
       <c r="G18" s="0"/>
       <c r="H18" s="0"/>
       <c r="I18" s="0"/>
@@ -11180,18 +11580,18 @@
       <c r="AF18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="153" t="n">
+      <c r="A19" s="162" t="n">
         <v>1</v>
       </c>
-      <c r="B19" s="153" t="s">
-        <v>234</v>
-      </c>
-      <c r="C19" s="153" t="s">
-        <v>235</v>
-      </c>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="151"/>
+      <c r="B19" s="162" t="s">
+        <v>262</v>
+      </c>
+      <c r="C19" s="162" t="s">
+        <v>263</v>
+      </c>
+      <c r="D19" s="164"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="160"/>
       <c r="G19" s="0"/>
       <c r="H19" s="0"/>
       <c r="I19" s="0"/>
@@ -11220,14 +11620,14 @@
       <c r="AF19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="156" t="n">
+      <c r="A20" s="165" t="n">
         <v>2</v>
       </c>
-      <c r="B20" s="156" t="s">
-        <v>236</v>
-      </c>
-      <c r="C20" s="156" t="s">
-        <v>237</v>
+      <c r="B20" s="165" t="s">
+        <v>264</v>
+      </c>
+      <c r="C20" s="165" t="s">
+        <v>134</v>
       </c>
       <c r="D20" s="0"/>
       <c r="G20" s="0"/>
@@ -11258,14 +11658,14 @@
       <c r="AF20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="156" t="n">
+      <c r="A21" s="165" t="n">
         <v>3</v>
       </c>
-      <c r="B21" s="156" t="s">
-        <v>238</v>
-      </c>
-      <c r="C21" s="156" t="s">
-        <v>239</v>
+      <c r="B21" s="165" t="s">
+        <v>265</v>
+      </c>
+      <c r="C21" s="165" t="s">
+        <v>133</v>
       </c>
       <c r="D21" s="0"/>
       <c r="G21" s="0"/>
@@ -11296,14 +11696,14 @@
       <c r="AF21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="156" t="n">
+      <c r="A22" s="165" t="n">
         <v>4</v>
       </c>
-      <c r="B22" s="156" t="s">
-        <v>240</v>
-      </c>
-      <c r="C22" s="156" t="s">
-        <v>241</v>
+      <c r="B22" s="165" t="s">
+        <v>266</v>
+      </c>
+      <c r="C22" s="165" t="s">
+        <v>132</v>
       </c>
       <c r="D22" s="0"/>
       <c r="G22" s="0"/>
@@ -11454,184 +11854,184 @@
       <c r="AF26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="151"/>
-      <c r="D27" s="151"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="100"/>
-      <c r="M27" s="100"/>
-      <c r="N27" s="100"/>
-      <c r="O27" s="100"/>
-      <c r="P27" s="100"/>
-      <c r="Q27" s="100"/>
-      <c r="R27" s="100"/>
-      <c r="S27" s="100"/>
-      <c r="T27" s="100"/>
-      <c r="U27" s="100"/>
-      <c r="V27" s="100"/>
-      <c r="W27" s="100"/>
-      <c r="X27" s="100"/>
-      <c r="Y27" s="100"/>
-      <c r="Z27" s="100"/>
-      <c r="AA27" s="100"/>
-      <c r="AB27" s="100"/>
-      <c r="AC27" s="100"/>
-      <c r="AD27" s="100"/>
-      <c r="AE27" s="100"/>
-      <c r="AF27" s="100"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="160"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="109"/>
+      <c r="N27" s="109"/>
+      <c r="O27" s="109"/>
+      <c r="P27" s="109"/>
+      <c r="Q27" s="109"/>
+      <c r="R27" s="109"/>
+      <c r="S27" s="109"/>
+      <c r="T27" s="109"/>
+      <c r="U27" s="109"/>
+      <c r="V27" s="109"/>
+      <c r="W27" s="109"/>
+      <c r="X27" s="109"/>
+      <c r="Y27" s="109"/>
+      <c r="Z27" s="109"/>
+      <c r="AA27" s="109"/>
+      <c r="AB27" s="109"/>
+      <c r="AC27" s="109"/>
+      <c r="AD27" s="109"/>
+      <c r="AE27" s="109"/>
+      <c r="AF27" s="109"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="100"/>
-      <c r="M28" s="100"/>
-      <c r="N28" s="100"/>
-      <c r="O28" s="100"/>
-      <c r="P28" s="100"/>
-      <c r="Q28" s="100"/>
-      <c r="R28" s="100"/>
-      <c r="S28" s="100"/>
-      <c r="T28" s="100"/>
-      <c r="U28" s="100"/>
-      <c r="V28" s="100"/>
-      <c r="W28" s="100"/>
-      <c r="X28" s="100"/>
-      <c r="Y28" s="100"/>
-      <c r="Z28" s="100"/>
-      <c r="AA28" s="100"/>
-      <c r="AB28" s="100"/>
-      <c r="AC28" s="100"/>
-      <c r="AD28" s="100"/>
-      <c r="AE28" s="100"/>
-      <c r="AF28" s="100"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="160"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="109"/>
+      <c r="J28" s="109"/>
+      <c r="K28" s="109"/>
+      <c r="L28" s="109"/>
+      <c r="M28" s="109"/>
+      <c r="N28" s="109"/>
+      <c r="O28" s="109"/>
+      <c r="P28" s="109"/>
+      <c r="Q28" s="109"/>
+      <c r="R28" s="109"/>
+      <c r="S28" s="109"/>
+      <c r="T28" s="109"/>
+      <c r="U28" s="109"/>
+      <c r="V28" s="109"/>
+      <c r="W28" s="109"/>
+      <c r="X28" s="109"/>
+      <c r="Y28" s="109"/>
+      <c r="Z28" s="109"/>
+      <c r="AA28" s="109"/>
+      <c r="AB28" s="109"/>
+      <c r="AC28" s="109"/>
+      <c r="AD28" s="109"/>
+      <c r="AE28" s="109"/>
+      <c r="AF28" s="109"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="G29" s="100"/>
-      <c r="H29" s="100"/>
-      <c r="I29" s="100"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="100"/>
-      <c r="L29" s="100"/>
-      <c r="M29" s="100"/>
-      <c r="N29" s="100"/>
-      <c r="O29" s="100"/>
-      <c r="P29" s="100"/>
-      <c r="Q29" s="100"/>
-      <c r="R29" s="100"/>
-      <c r="S29" s="100"/>
-      <c r="T29" s="100"/>
-      <c r="U29" s="100"/>
-      <c r="V29" s="100"/>
-      <c r="W29" s="100"/>
-      <c r="X29" s="100"/>
-      <c r="Y29" s="100"/>
-      <c r="Z29" s="100"/>
-      <c r="AA29" s="100"/>
-      <c r="AB29" s="100"/>
-      <c r="AC29" s="100"/>
-      <c r="AD29" s="100"/>
-      <c r="AE29" s="100"/>
-      <c r="AF29" s="100"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="160"/>
+      <c r="G29" s="109"/>
+      <c r="H29" s="109"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="109"/>
+      <c r="K29" s="109"/>
+      <c r="L29" s="109"/>
+      <c r="M29" s="109"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="109"/>
+      <c r="U29" s="109"/>
+      <c r="V29" s="109"/>
+      <c r="W29" s="109"/>
+      <c r="X29" s="109"/>
+      <c r="Y29" s="109"/>
+      <c r="Z29" s="109"/>
+      <c r="AA29" s="109"/>
+      <c r="AB29" s="109"/>
+      <c r="AC29" s="109"/>
+      <c r="AD29" s="109"/>
+      <c r="AE29" s="109"/>
+      <c r="AF29" s="109"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="157"/>
-      <c r="D30" s="157"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="100"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="100"/>
-      <c r="L30" s="100"/>
-      <c r="M30" s="100"/>
-      <c r="N30" s="100"/>
-      <c r="O30" s="100"/>
-      <c r="P30" s="100"/>
-      <c r="Q30" s="100"/>
-      <c r="R30" s="100"/>
-      <c r="S30" s="100"/>
-      <c r="T30" s="100"/>
-      <c r="U30" s="100"/>
-      <c r="V30" s="100"/>
-      <c r="W30" s="100"/>
-      <c r="X30" s="100"/>
-      <c r="Y30" s="100"/>
-      <c r="Z30" s="100"/>
-      <c r="AA30" s="100"/>
-      <c r="AB30" s="100"/>
-      <c r="AC30" s="100"/>
-      <c r="AD30" s="100"/>
-      <c r="AE30" s="100"/>
-      <c r="AF30" s="100"/>
+      <c r="C30" s="166"/>
+      <c r="D30" s="166"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="109"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="109"/>
+      <c r="K30" s="109"/>
+      <c r="L30" s="109"/>
+      <c r="M30" s="109"/>
+      <c r="N30" s="109"/>
+      <c r="O30" s="109"/>
+      <c r="P30" s="109"/>
+      <c r="Q30" s="109"/>
+      <c r="R30" s="109"/>
+      <c r="S30" s="109"/>
+      <c r="T30" s="109"/>
+      <c r="U30" s="109"/>
+      <c r="V30" s="109"/>
+      <c r="W30" s="109"/>
+      <c r="X30" s="109"/>
+      <c r="Y30" s="109"/>
+      <c r="Z30" s="109"/>
+      <c r="AA30" s="109"/>
+      <c r="AB30" s="109"/>
+      <c r="AC30" s="109"/>
+      <c r="AD30" s="109"/>
+      <c r="AE30" s="109"/>
+      <c r="AF30" s="109"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="100"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
-      <c r="L31" s="100"/>
-      <c r="M31" s="100"/>
-      <c r="N31" s="100"/>
-      <c r="O31" s="100"/>
-      <c r="P31" s="100"/>
-      <c r="Q31" s="100"/>
-      <c r="R31" s="100"/>
-      <c r="S31" s="100"/>
-      <c r="T31" s="100"/>
-      <c r="U31" s="100"/>
-      <c r="V31" s="100"/>
-      <c r="W31" s="100"/>
-      <c r="X31" s="100"/>
-      <c r="Y31" s="100"/>
-      <c r="Z31" s="100"/>
-      <c r="AA31" s="100"/>
-      <c r="AB31" s="100"/>
-      <c r="AC31" s="100"/>
-      <c r="AD31" s="100"/>
-      <c r="AE31" s="100"/>
-      <c r="AF31" s="100"/>
+      <c r="C31" s="166"/>
+      <c r="D31" s="166"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="109"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="109"/>
+      <c r="N31" s="109"/>
+      <c r="O31" s="109"/>
+      <c r="P31" s="109"/>
+      <c r="Q31" s="109"/>
+      <c r="R31" s="109"/>
+      <c r="S31" s="109"/>
+      <c r="T31" s="109"/>
+      <c r="U31" s="109"/>
+      <c r="V31" s="109"/>
+      <c r="W31" s="109"/>
+      <c r="X31" s="109"/>
+      <c r="Y31" s="109"/>
+      <c r="Z31" s="109"/>
+      <c r="AA31" s="109"/>
+      <c r="AB31" s="109"/>
+      <c r="AC31" s="109"/>
+      <c r="AD31" s="109"/>
+      <c r="AE31" s="109"/>
+      <c r="AF31" s="109"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="157"/>
-      <c r="D32" s="157"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="100"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="100"/>
-      <c r="L32" s="100"/>
-      <c r="M32" s="100"/>
-      <c r="N32" s="100"/>
-      <c r="O32" s="100"/>
-      <c r="P32" s="100"/>
-      <c r="Q32" s="100"/>
-      <c r="R32" s="100"/>
-      <c r="S32" s="100"/>
-      <c r="T32" s="100"/>
-      <c r="U32" s="100"/>
-      <c r="V32" s="100"/>
-      <c r="W32" s="100"/>
-      <c r="X32" s="100"/>
-      <c r="Y32" s="100"/>
-      <c r="Z32" s="100"/>
-      <c r="AA32" s="100"/>
-      <c r="AB32" s="100"/>
-      <c r="AC32" s="100"/>
-      <c r="AD32" s="100"/>
-      <c r="AE32" s="100"/>
-      <c r="AF32" s="100"/>
+      <c r="C32" s="166"/>
+      <c r="D32" s="166"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="109"/>
+      <c r="J32" s="109"/>
+      <c r="K32" s="109"/>
+      <c r="L32" s="109"/>
+      <c r="M32" s="109"/>
+      <c r="N32" s="109"/>
+      <c r="O32" s="109"/>
+      <c r="P32" s="109"/>
+      <c r="Q32" s="109"/>
+      <c r="R32" s="109"/>
+      <c r="S32" s="109"/>
+      <c r="T32" s="109"/>
+      <c r="U32" s="109"/>
+      <c r="V32" s="109"/>
+      <c r="W32" s="109"/>
+      <c r="X32" s="109"/>
+      <c r="Y32" s="109"/>
+      <c r="Z32" s="109"/>
+      <c r="AA32" s="109"/>
+      <c r="AB32" s="109"/>
+      <c r="AC32" s="109"/>
+      <c r="AD32" s="109"/>
+      <c r="AE32" s="109"/>
+      <c r="AF32" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Proyectos/2016/Linea Base/Plan_proyecto_2016.xlsx
+++ b/Proyectos/2016/Linea Base/Plan_proyecto_2016.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="1" state="visible" r:id="rId2"/>
@@ -58,6 +58,7 @@
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Plan Riesgos'!$A$1:$F$13</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Plan Riesgos'!$A$1:$F$13</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Plan Riesgos'!$A$1:$F$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Plan Riesgos'!$A$1:$F$13</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Sheet_Title" vbProcedure="false">"Plan Riesgos"</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="true" iterateDelta="0.001"/>
@@ -166,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="268">
   <si>
     <t>Plan del Proyecto</t>
   </si>
@@ -794,6 +795,9 @@
   </si>
   <si>
     <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Los recursos descritos abajo son de tipo muy general, esto se puede apreciar mas especificamente en el archivo inventario de equipos y cuentas de colaboradores de la carpeta documentos adicionales /referencias en la raíz de las carpetas</t>
   </si>
   <si>
     <t>Internet</t>
@@ -1494,7 +1498,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="168">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1900,6 +1904,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2360,7 +2368,7 @@
   </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -10309,10 +10317,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -10370,161 +10378,173 @@
       </c>
       <c r="I3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="42.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="102" t="s">
         <v>205</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="I4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="103" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="B5" s="104" t="s">
         <v>207</v>
       </c>
-      <c r="D4" s="104" t="n">
+      <c r="C5" s="104" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="105" t="n">
         <v>42380</v>
       </c>
-      <c r="E4" s="104" t="n">
+      <c r="E5" s="105" t="n">
         <v>42373</v>
       </c>
-      <c r="F4" s="103"/>
-      <c r="I4" s="105"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="102" t="s">
-        <v>208</v>
-      </c>
-      <c r="B5" s="103" t="s">
-        <v>206</v>
-      </c>
-      <c r="C5" s="103" t="s">
+      <c r="F5" s="104"/>
+      <c r="I5" s="106"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="103" t="s">
         <v>209</v>
       </c>
-      <c r="D5" s="104" t="n">
+      <c r="B6" s="104" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="104" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="105" t="n">
         <v>42380</v>
       </c>
-      <c r="E5" s="104" t="n">
+      <c r="E6" s="105" t="n">
         <v>42373</v>
       </c>
-      <c r="F5" s="103"/>
-      <c r="I5" s="105"/>
-    </row>
-    <row r="6" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="102" t="s">
+      <c r="F6" s="104"/>
+      <c r="I6" s="106"/>
+    </row>
+    <row r="7" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="103" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" s="104" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="104" t="s">
+        <v>213</v>
+      </c>
+      <c r="D7" s="105" t="n">
+        <v>42380</v>
+      </c>
+      <c r="E7" s="105" t="n">
+        <v>42373</v>
+      </c>
+      <c r="F7" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I7" s="106"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="103" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="104" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="104" t="s">
         <v>210</v>
       </c>
-      <c r="B6" s="103" t="s">
-        <v>211</v>
-      </c>
-      <c r="C6" s="103" t="s">
-        <v>212</v>
-      </c>
-      <c r="D6" s="104" t="n">
+      <c r="D8" s="105" t="n">
         <v>42380</v>
       </c>
-      <c r="E6" s="104" t="n">
+      <c r="E8" s="105" t="n">
         <v>42373</v>
       </c>
-      <c r="F6" s="103" t="s">
-        <v>213</v>
-      </c>
-      <c r="I6" s="105"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="102" t="s">
-        <v>214</v>
-      </c>
-      <c r="B7" s="103" t="s">
-        <v>206</v>
-      </c>
-      <c r="C7" s="103" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="104" t="n">
+      <c r="F8" s="104"/>
+      <c r="I8" s="106"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="103" t="s">
+        <v>216</v>
+      </c>
+      <c r="B9" s="104" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" s="104" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="105" t="n">
         <v>42380</v>
       </c>
-      <c r="E7" s="104" t="n">
+      <c r="E9" s="105" t="n">
         <v>42373</v>
       </c>
-      <c r="F7" s="103"/>
-      <c r="I7" s="105"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="102" t="s">
-        <v>215</v>
-      </c>
-      <c r="B8" s="103" t="s">
-        <v>206</v>
-      </c>
-      <c r="C8" s="103" t="s">
-        <v>209</v>
-      </c>
-      <c r="D8" s="104" t="n">
-        <v>42380</v>
-      </c>
-      <c r="E8" s="104" t="n">
-        <v>42373</v>
-      </c>
-      <c r="F8" s="103"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="106"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="103"/>
+      <c r="F9" s="104"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="102"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="103"/>
+      <c r="A10" s="107"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="104"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="102"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="103"/>
+      <c r="A11" s="103"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="104"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="102"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="103"/>
+      <c r="A12" s="103"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="104"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="103"/>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="104"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="103"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
+      <c r="A14" s="104"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="103"/>
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
+      <c r="A15" s="104"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="104"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.611111111111111" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -10565,10 +10585,10 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="109"/>
+      <c r="A1" s="110"/>
       <c r="B1" s="0"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
       <c r="E1" s="0"/>
       <c r="F1" s="0"/>
       <c r="G1" s="0"/>
@@ -10609,19 +10629,19 @@
       <c r="JA1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="111" t="s">
-        <v>216</v>
-      </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
+      <c r="A2" s="112" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
       <c r="L2" s="0"/>
       <c r="M2" s="0"/>
       <c r="N2" s="0"/>
@@ -10643,31 +10663,31 @@
       <c r="AD2" s="0"/>
       <c r="AE2" s="0"/>
       <c r="AF2" s="0"/>
-      <c r="IR2" s="112" t="s">
-        <v>217</v>
-      </c>
-      <c r="IS2" s="112"/>
-      <c r="IT2" s="112"/>
-      <c r="IU2" s="112"/>
-      <c r="IV2" s="112"/>
-      <c r="IW2" s="112"/>
-      <c r="IX2" s="112"/>
-      <c r="IY2" s="112"/>
-      <c r="IZ2" s="112"/>
-      <c r="JA2" s="112"/>
+      <c r="IR2" s="113" t="s">
+        <v>218</v>
+      </c>
+      <c r="IS2" s="113"/>
+      <c r="IT2" s="113"/>
+      <c r="IU2" s="113"/>
+      <c r="IV2" s="113"/>
+      <c r="IW2" s="113"/>
+      <c r="IX2" s="113"/>
+      <c r="IY2" s="113"/>
+      <c r="IZ2" s="113"/>
+      <c r="JA2" s="113"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
       <c r="L3" s="0"/>
       <c r="M3" s="0"/>
       <c r="N3" s="0"/>
@@ -10687,11 +10707,11 @@
       <c r="AB3" s="0"/>
       <c r="AC3" s="0"/>
       <c r="AD3" s="0"/>
-      <c r="AE3" s="113" t="s">
-        <v>218</v>
-      </c>
-      <c r="AF3" s="113" t="s">
+      <c r="AE3" s="114" t="s">
         <v>219</v>
+      </c>
+      <c r="AF3" s="114" t="s">
+        <v>220</v>
       </c>
       <c r="IS3" s="0"/>
       <c r="IT3" s="0"/>
@@ -10703,38 +10723,38 @@
       <c r="IZ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="114" t="s">
-        <v>220</v>
-      </c>
-      <c r="B4" s="115" t="s">
+      <c r="A4" s="115" t="s">
         <v>221</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="B4" s="116" t="s">
         <v>222</v>
       </c>
-      <c r="D4" s="116" t="s">
+      <c r="C4" s="117" t="s">
         <v>223</v>
       </c>
-      <c r="E4" s="116" t="s">
+      <c r="D4" s="117" t="s">
         <v>224</v>
       </c>
-      <c r="F4" s="116" t="s">
+      <c r="E4" s="117" t="s">
         <v>225</v>
       </c>
-      <c r="G4" s="116" t="s">
+      <c r="F4" s="117" t="s">
         <v>226</v>
       </c>
-      <c r="H4" s="116" t="s">
+      <c r="G4" s="117" t="s">
         <v>227</v>
       </c>
-      <c r="I4" s="116" t="s">
+      <c r="H4" s="117" t="s">
         <v>228</v>
       </c>
-      <c r="J4" s="117" t="s">
+      <c r="I4" s="117" t="s">
         <v>229</v>
       </c>
-      <c r="K4" s="116" t="s">
+      <c r="J4" s="118" t="s">
         <v>230</v>
+      </c>
+      <c r="K4" s="117" t="s">
+        <v>231</v>
       </c>
       <c r="L4" s="0"/>
       <c r="M4" s="0"/>
@@ -10755,11 +10775,11 @@
       <c r="AB4" s="0"/>
       <c r="AC4" s="0"/>
       <c r="AD4" s="0"/>
-      <c r="AE4" s="118" t="s">
-        <v>218</v>
-      </c>
-      <c r="AF4" s="118" t="s">
+      <c r="AE4" s="119" t="s">
         <v>219</v>
+      </c>
+      <c r="AF4" s="119" t="s">
+        <v>220</v>
       </c>
       <c r="IS4" s="0"/>
       <c r="IT4" s="0"/>
@@ -10771,39 +10791,39 @@
       <c r="IZ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="54.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="119" t="n">
+      <c r="A5" s="120" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="120" t="s">
-        <v>231</v>
-      </c>
-      <c r="C5" s="119" t="n">
+      <c r="B5" s="121" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="120" t="n">
         <v>5</v>
       </c>
-      <c r="D5" s="121" t="n">
+      <c r="D5" s="122" t="n">
         <v>0.3</v>
       </c>
-      <c r="E5" s="119" t="n">
+      <c r="E5" s="120" t="n">
         <f aca="false">PRODUCT(A5:D5)</f>
         <v>1.5</v>
       </c>
-      <c r="F5" s="119" t="n">
+      <c r="F5" s="120" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="120" t="s">
-        <v>232</v>
-      </c>
-      <c r="H5" s="120" t="s">
+      <c r="G5" s="121" t="s">
         <v>233</v>
       </c>
-      <c r="I5" s="119" t="s">
+      <c r="H5" s="121" t="s">
+        <v>234</v>
+      </c>
+      <c r="I5" s="120" t="s">
         <v>157</v>
       </c>
-      <c r="J5" s="122" t="s">
-        <v>234</v>
-      </c>
-      <c r="K5" s="123" t="s">
+      <c r="J5" s="123" t="s">
         <v>235</v>
+      </c>
+      <c r="K5" s="124" t="s">
+        <v>236</v>
       </c>
       <c r="L5" s="0"/>
       <c r="M5" s="0"/>
@@ -10826,70 +10846,70 @@
       <c r="AD5" s="0"/>
       <c r="AE5" s="0"/>
       <c r="AF5" s="0"/>
-      <c r="IS5" s="124" t="s">
-        <v>236</v>
-      </c>
-      <c r="IT5" s="125" t="s">
+      <c r="IS5" s="125" t="s">
         <v>237</v>
       </c>
-      <c r="IU5" s="126" t="n">
+      <c r="IT5" s="126" t="s">
+        <v>238</v>
+      </c>
+      <c r="IU5" s="127" t="n">
         <v>0.9</v>
       </c>
-      <c r="IV5" s="127" t="n">
+      <c r="IV5" s="128" t="n">
         <f aca="false">(IV9*IU5)</f>
         <v>0.9</v>
       </c>
-      <c r="IW5" s="128" t="n">
+      <c r="IW5" s="129" t="n">
         <f aca="false">(IW9*IU5)</f>
         <v>1.8</v>
       </c>
-      <c r="IX5" s="129" t="n">
+      <c r="IX5" s="130" t="n">
         <f aca="false">(IX9*IU5)</f>
         <v>2.7</v>
       </c>
-      <c r="IY5" s="130" t="n">
+      <c r="IY5" s="131" t="n">
         <f aca="false">(IY9*IU5)</f>
         <v>3.6</v>
       </c>
-      <c r="IZ5" s="131" t="n">
+      <c r="IZ5" s="132" t="n">
         <f aca="false">(IZ9*IU5)</f>
         <v>4.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="119" t="n">
+      <c r="A6" s="120" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="120" t="s">
-        <v>238</v>
-      </c>
-      <c r="C6" s="119" t="n">
+      <c r="B6" s="121" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="120" t="n">
         <v>4</v>
       </c>
-      <c r="D6" s="121" t="n">
+      <c r="D6" s="122" t="n">
         <v>0.2</v>
       </c>
-      <c r="E6" s="119" t="n">
+      <c r="E6" s="120" t="n">
         <f aca="false">PRODUCT(C6:D6)</f>
         <v>0.8</v>
       </c>
-      <c r="F6" s="119" t="n">
+      <c r="F6" s="120" t="n">
         <v>3</v>
       </c>
-      <c r="G6" s="120" t="s">
-        <v>239</v>
-      </c>
-      <c r="H6" s="120" t="s">
+      <c r="G6" s="121" t="s">
         <v>240</v>
       </c>
-      <c r="I6" s="119" t="s">
+      <c r="H6" s="121" t="s">
+        <v>241</v>
+      </c>
+      <c r="I6" s="120" t="s">
         <v>157</v>
       </c>
-      <c r="J6" s="122" t="s">
-        <v>234</v>
-      </c>
-      <c r="K6" s="123" t="s">
+      <c r="J6" s="123" t="s">
         <v>235</v>
+      </c>
+      <c r="K6" s="124" t="s">
+        <v>236</v>
       </c>
       <c r="L6" s="0"/>
       <c r="M6" s="0"/>
@@ -10912,68 +10932,68 @@
       <c r="AD6" s="0"/>
       <c r="AE6" s="0"/>
       <c r="AF6" s="0"/>
-      <c r="IS6" s="124"/>
-      <c r="IT6" s="125" t="s">
-        <v>241</v>
-      </c>
-      <c r="IU6" s="126" t="n">
+      <c r="IS6" s="125"/>
+      <c r="IT6" s="126" t="s">
+        <v>242</v>
+      </c>
+      <c r="IU6" s="127" t="n">
         <v>0.5</v>
       </c>
-      <c r="IV6" s="132" t="n">
+      <c r="IV6" s="133" t="n">
         <f aca="false">(IV9*IU6)</f>
         <v>0.5</v>
       </c>
-      <c r="IW6" s="133" t="n">
+      <c r="IW6" s="134" t="n">
         <f aca="false">(IW9*IU6)</f>
         <v>1</v>
       </c>
-      <c r="IX6" s="134" t="n">
+      <c r="IX6" s="135" t="n">
         <f aca="false">(IX9*IU6)</f>
         <v>1.5</v>
       </c>
-      <c r="IY6" s="134" t="n">
+      <c r="IY6" s="135" t="n">
         <f aca="false">(IY9*IU6)</f>
         <v>2</v>
       </c>
-      <c r="IZ6" s="135" t="n">
+      <c r="IZ6" s="136" t="n">
         <f aca="false">(IZ9*IU6)</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="119" t="n">
+      <c r="A7" s="120" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="120" t="s">
-        <v>242</v>
-      </c>
-      <c r="C7" s="119" t="n">
+      <c r="B7" s="121" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="120" t="n">
         <v>5</v>
       </c>
-      <c r="D7" s="121" t="n">
+      <c r="D7" s="122" t="n">
         <v>0.01</v>
       </c>
-      <c r="E7" s="119" t="n">
+      <c r="E7" s="120" t="n">
         <f aca="false">PRODUCT(C7:D7)</f>
         <v>0.05</v>
       </c>
-      <c r="F7" s="119" t="n">
+      <c r="F7" s="120" t="n">
         <v>4</v>
       </c>
-      <c r="G7" s="120" t="s">
-        <v>243</v>
-      </c>
-      <c r="H7" s="120" t="s">
+      <c r="G7" s="121" t="s">
         <v>244</v>
       </c>
-      <c r="I7" s="119" t="s">
+      <c r="H7" s="121" t="s">
+        <v>245</v>
+      </c>
+      <c r="I7" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="122" t="s">
-        <v>234</v>
-      </c>
-      <c r="K7" s="123" t="s">
+      <c r="J7" s="123" t="s">
         <v>235</v>
+      </c>
+      <c r="K7" s="124" t="s">
+        <v>236</v>
       </c>
       <c r="L7" s="0"/>
       <c r="M7" s="0"/>
@@ -10996,68 +11016,68 @@
       <c r="AD7" s="0"/>
       <c r="AE7" s="0"/>
       <c r="AF7" s="0"/>
-      <c r="IS7" s="124"/>
-      <c r="IT7" s="125" t="s">
-        <v>245</v>
-      </c>
-      <c r="IU7" s="126" t="n">
+      <c r="IS7" s="125"/>
+      <c r="IT7" s="126" t="s">
+        <v>246</v>
+      </c>
+      <c r="IU7" s="127" t="n">
         <v>0.3</v>
       </c>
-      <c r="IV7" s="136" t="n">
+      <c r="IV7" s="137" t="n">
         <f aca="false">(IV9*IU7)</f>
         <v>0.3</v>
       </c>
-      <c r="IW7" s="137" t="n">
+      <c r="IW7" s="138" t="n">
         <f aca="false">(IW9*IU7)</f>
         <v>0.6</v>
       </c>
-      <c r="IX7" s="134" t="n">
+      <c r="IX7" s="135" t="n">
         <f aca="false">(IX9*IU7)</f>
         <v>0.9</v>
       </c>
-      <c r="IY7" s="134" t="n">
+      <c r="IY7" s="135" t="n">
         <f aca="false">(IY9*IU7)</f>
         <v>1.2</v>
       </c>
-      <c r="IZ7" s="138" t="n">
+      <c r="IZ7" s="139" t="n">
         <f aca="false">(IZ9*IU7)</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="119" t="n">
+      <c r="A8" s="120" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="120" t="s">
-        <v>246</v>
-      </c>
-      <c r="C8" s="119" t="n">
+      <c r="B8" s="121" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="120" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="121" t="n">
+      <c r="D8" s="122" t="n">
         <v>0.4</v>
       </c>
-      <c r="E8" s="119" t="n">
+      <c r="E8" s="120" t="n">
         <f aca="false">PRODUCT(C8:D8)</f>
         <v>2</v>
       </c>
-      <c r="F8" s="119" t="n">
+      <c r="F8" s="120" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="120" t="s">
-        <v>247</v>
-      </c>
-      <c r="H8" s="120" t="s">
+      <c r="G8" s="121" t="s">
         <v>248</v>
       </c>
-      <c r="I8" s="119" t="s">
+      <c r="H8" s="121" t="s">
+        <v>249</v>
+      </c>
+      <c r="I8" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="122" t="s">
-        <v>234</v>
-      </c>
-      <c r="K8" s="123" t="s">
+      <c r="J8" s="123" t="s">
         <v>235</v>
+      </c>
+      <c r="K8" s="124" t="s">
+        <v>236</v>
       </c>
       <c r="L8" s="0"/>
       <c r="M8" s="0"/>
@@ -11080,68 +11100,68 @@
       <c r="AD8" s="0"/>
       <c r="AE8" s="0"/>
       <c r="AF8" s="0"/>
-      <c r="IS8" s="124"/>
-      <c r="IT8" s="125" t="s">
-        <v>241</v>
-      </c>
-      <c r="IU8" s="139" t="n">
+      <c r="IS8" s="125"/>
+      <c r="IT8" s="126" t="s">
+        <v>242</v>
+      </c>
+      <c r="IU8" s="140" t="n">
         <v>0.1</v>
       </c>
-      <c r="IV8" s="140" t="n">
+      <c r="IV8" s="141" t="n">
         <f aca="false">(IV9*IU8)</f>
         <v>0.1</v>
       </c>
-      <c r="IW8" s="141" t="n">
+      <c r="IW8" s="142" t="n">
         <f aca="false">(IW9*IU8)</f>
         <v>0.2</v>
       </c>
-      <c r="IX8" s="142" t="n">
+      <c r="IX8" s="143" t="n">
         <f aca="false">(IX9*IV8)</f>
         <v>0.3</v>
       </c>
-      <c r="IY8" s="142" t="n">
+      <c r="IY8" s="143" t="n">
         <f aca="false">(IY9*IU8)</f>
         <v>0.4</v>
       </c>
-      <c r="IZ8" s="143" t="n">
+      <c r="IZ8" s="144" t="n">
         <f aca="false">(IZ9*IU8)</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="144" t="n">
+      <c r="A9" s="145" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="120" t="s">
-        <v>249</v>
-      </c>
-      <c r="C9" s="119" t="n">
+      <c r="B9" s="121" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" s="120" t="n">
         <v>5</v>
       </c>
-      <c r="D9" s="121" t="n">
+      <c r="D9" s="122" t="n">
         <v>0.2</v>
       </c>
-      <c r="E9" s="119" t="n">
+      <c r="E9" s="120" t="n">
         <f aca="false">PRODUCT(C9:D9)</f>
         <v>1</v>
       </c>
-      <c r="F9" s="119" t="n">
+      <c r="F9" s="120" t="n">
         <v>3</v>
       </c>
-      <c r="G9" s="120" t="s">
-        <v>250</v>
-      </c>
-      <c r="H9" s="120" t="s">
+      <c r="G9" s="121" t="s">
         <v>251</v>
       </c>
-      <c r="I9" s="119" t="s">
+      <c r="H9" s="121" t="s">
+        <v>252</v>
+      </c>
+      <c r="I9" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="122" t="s">
-        <v>234</v>
-      </c>
-      <c r="K9" s="123" t="s">
+      <c r="J9" s="123" t="s">
         <v>235</v>
+      </c>
+      <c r="K9" s="124" t="s">
+        <v>236</v>
       </c>
       <c r="L9" s="0"/>
       <c r="M9" s="0"/>
@@ -11164,59 +11184,59 @@
       <c r="AD9" s="0"/>
       <c r="AE9" s="0"/>
       <c r="AF9" s="0"/>
-      <c r="IS9" s="145"/>
+      <c r="IS9" s="146"/>
       <c r="IT9" s="0"/>
-      <c r="IU9" s="125"/>
-      <c r="IV9" s="126" t="n">
+      <c r="IU9" s="126"/>
+      <c r="IV9" s="127" t="n">
         <v>1</v>
       </c>
-      <c r="IW9" s="126" t="n">
+      <c r="IW9" s="127" t="n">
         <v>2</v>
       </c>
-      <c r="IX9" s="126" t="n">
+      <c r="IX9" s="127" t="n">
         <v>3</v>
       </c>
-      <c r="IY9" s="126" t="n">
+      <c r="IY9" s="127" t="n">
         <v>4</v>
       </c>
-      <c r="IZ9" s="146" t="n">
+      <c r="IZ9" s="147" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="147" t="n">
+      <c r="A10" s="148" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="148" t="s">
-        <v>252</v>
-      </c>
-      <c r="C10" s="119" t="n">
+      <c r="B10" s="149" t="s">
+        <v>253</v>
+      </c>
+      <c r="C10" s="120" t="n">
         <v>5</v>
       </c>
-      <c r="D10" s="121" t="n">
+      <c r="D10" s="122" t="n">
         <v>0.2</v>
       </c>
-      <c r="E10" s="119" t="n">
+      <c r="E10" s="120" t="n">
         <f aca="false">PRODUCT(C10:D10)</f>
         <v>1</v>
       </c>
-      <c r="F10" s="119" t="n">
+      <c r="F10" s="120" t="n">
         <v>3</v>
       </c>
-      <c r="G10" s="149" t="s">
-        <v>253</v>
-      </c>
-      <c r="H10" s="150" t="s">
+      <c r="G10" s="150" t="s">
         <v>254</v>
       </c>
-      <c r="I10" s="119" t="s">
+      <c r="H10" s="151" t="s">
+        <v>255</v>
+      </c>
+      <c r="I10" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="122" t="s">
-        <v>234</v>
-      </c>
-      <c r="K10" s="151" t="s">
+      <c r="J10" s="123" t="s">
         <v>235</v>
+      </c>
+      <c r="K10" s="152" t="s">
+        <v>236</v>
       </c>
       <c r="L10" s="0"/>
       <c r="M10" s="0"/>
@@ -11239,42 +11259,42 @@
       <c r="AD10" s="0"/>
       <c r="AE10" s="0"/>
       <c r="AF10" s="0"/>
-      <c r="IS10" s="145"/>
+      <c r="IS10" s="146"/>
       <c r="IT10" s="0"/>
       <c r="IU10" s="0"/>
-      <c r="IV10" s="125" t="s">
-        <v>241</v>
-      </c>
-      <c r="IW10" s="125" t="s">
-        <v>245</v>
-      </c>
-      <c r="IX10" s="125" t="s">
-        <v>255</v>
-      </c>
-      <c r="IY10" s="125" t="s">
+      <c r="IV10" s="126" t="s">
+        <v>242</v>
+      </c>
+      <c r="IW10" s="126" t="s">
+        <v>246</v>
+      </c>
+      <c r="IX10" s="126" t="s">
         <v>256</v>
       </c>
-      <c r="IZ10" s="152" t="s">
-        <v>237</v>
+      <c r="IY10" s="126" t="s">
+        <v>257</v>
+      </c>
+      <c r="IZ10" s="153" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="147" t="n">
+      <c r="A11" s="148" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="148"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="147" t="n">
+      <c r="B11" s="149"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="148" t="n">
         <f aca="false">PRODUCT(C11:D11)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="147"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="156"/>
-      <c r="K11" s="154"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="157"/>
+      <c r="K11" s="155"/>
       <c r="L11" s="0"/>
       <c r="M11" s="0"/>
       <c r="N11" s="0"/>
@@ -11296,34 +11316,34 @@
       <c r="AD11" s="0"/>
       <c r="AE11" s="0"/>
       <c r="AF11" s="0"/>
-      <c r="IS11" s="145"/>
+      <c r="IS11" s="146"/>
       <c r="IT11" s="0"/>
-      <c r="IU11" s="126"/>
-      <c r="IV11" s="157" t="s">
-        <v>257</v>
-      </c>
-      <c r="IW11" s="157"/>
-      <c r="IX11" s="157"/>
-      <c r="IY11" s="157"/>
-      <c r="IZ11" s="157"/>
+      <c r="IU11" s="127"/>
+      <c r="IV11" s="158" t="s">
+        <v>258</v>
+      </c>
+      <c r="IW11" s="158"/>
+      <c r="IX11" s="158"/>
+      <c r="IY11" s="158"/>
+      <c r="IZ11" s="158"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="147" t="n">
+      <c r="A12" s="148" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="148"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="153"/>
-      <c r="E12" s="147" t="n">
+      <c r="B12" s="149"/>
+      <c r="C12" s="148"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="148" t="n">
         <f aca="false">PRODUCT(C12:D12)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="147"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="154"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="157"/>
+      <c r="K12" s="155"/>
       <c r="L12" s="0"/>
       <c r="M12" s="0"/>
       <c r="N12" s="0"/>
@@ -11345,32 +11365,32 @@
       <c r="AD12" s="0"/>
       <c r="AE12" s="0"/>
       <c r="AF12" s="0"/>
-      <c r="IS12" s="145"/>
+      <c r="IS12" s="146"/>
       <c r="IT12" s="0"/>
       <c r="IU12" s="0"/>
       <c r="IV12" s="0"/>
       <c r="IW12" s="0"/>
       <c r="IX12" s="0"/>
       <c r="IY12" s="0"/>
-      <c r="IZ12" s="158"/>
+      <c r="IZ12" s="159"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="147" t="n">
+      <c r="A13" s="148" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="148"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="153"/>
-      <c r="E13" s="147" t="n">
+      <c r="B13" s="149"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="148" t="n">
         <f aca="false">PRODUCT(C13:D13)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="147"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="155"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="154"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="157"/>
+      <c r="K13" s="155"/>
       <c r="L13" s="0"/>
       <c r="M13" s="0"/>
       <c r="N13" s="0"/>
@@ -11392,22 +11412,22 @@
       <c r="AD13" s="0"/>
       <c r="AE13" s="0"/>
       <c r="AF13" s="0"/>
-      <c r="IS13" s="145"/>
+      <c r="IS13" s="146"/>
       <c r="IT13" s="0"/>
-      <c r="IU13" s="118"/>
-      <c r="IV13" s="118"/>
-      <c r="IW13" s="118"/>
-      <c r="IX13" s="118"/>
-      <c r="IY13" s="118"/>
-      <c r="IZ13" s="159"/>
+      <c r="IU13" s="119"/>
+      <c r="IV13" s="119"/>
+      <c r="IW13" s="119"/>
+      <c r="IX13" s="119"/>
+      <c r="IY13" s="119"/>
+      <c r="IZ13" s="160"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="160"/>
-      <c r="B14" s="160"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
+      <c r="A14" s="161"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="161"/>
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
@@ -11436,12 +11456,12 @@
       <c r="AF14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="160"/>
-      <c r="B15" s="160"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="160"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
+      <c r="A15" s="161"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="161"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
@@ -11470,12 +11490,12 @@
       <c r="AF15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="160"/>
-      <c r="B16" s="160"/>
-      <c r="C16" s="160"/>
-      <c r="D16" s="160"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
+      <c r="A16" s="161"/>
+      <c r="B16" s="161"/>
+      <c r="C16" s="161"/>
+      <c r="D16" s="161"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="161"/>
       <c r="G16" s="0"/>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
@@ -11504,14 +11524,14 @@
       <c r="AF16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="161" t="s">
-        <v>258</v>
-      </c>
-      <c r="B17" s="161"/>
-      <c r="C17" s="161"/>
-      <c r="D17" s="160"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="160"/>
+      <c r="A17" s="162" t="s">
+        <v>259</v>
+      </c>
+      <c r="B17" s="162"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="161"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="161"/>
       <c r="G17" s="0"/>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
@@ -11540,18 +11560,18 @@
       <c r="AF17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="162" t="s">
-        <v>259</v>
-      </c>
-      <c r="B18" s="163" t="s">
+      <c r="A18" s="163" t="s">
         <v>260</v>
       </c>
-      <c r="C18" s="162" t="s">
+      <c r="B18" s="164" t="s">
         <v>261</v>
       </c>
-      <c r="D18" s="160"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
+      <c r="C18" s="163" t="s">
+        <v>262</v>
+      </c>
+      <c r="D18" s="161"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="161"/>
       <c r="G18" s="0"/>
       <c r="H18" s="0"/>
       <c r="I18" s="0"/>
@@ -11580,18 +11600,18 @@
       <c r="AF18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="162" t="n">
+      <c r="A19" s="163" t="n">
         <v>1</v>
       </c>
-      <c r="B19" s="162" t="s">
-        <v>262</v>
-      </c>
-      <c r="C19" s="162" t="s">
+      <c r="B19" s="163" t="s">
         <v>263</v>
       </c>
-      <c r="D19" s="164"/>
-      <c r="E19" s="164"/>
-      <c r="F19" s="160"/>
+      <c r="C19" s="163" t="s">
+        <v>264</v>
+      </c>
+      <c r="D19" s="165"/>
+      <c r="E19" s="165"/>
+      <c r="F19" s="161"/>
       <c r="G19" s="0"/>
       <c r="H19" s="0"/>
       <c r="I19" s="0"/>
@@ -11620,13 +11640,13 @@
       <c r="AF19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="165" t="n">
+      <c r="A20" s="166" t="n">
         <v>2</v>
       </c>
-      <c r="B20" s="165" t="s">
-        <v>264</v>
-      </c>
-      <c r="C20" s="165" t="s">
+      <c r="B20" s="166" t="s">
+        <v>265</v>
+      </c>
+      <c r="C20" s="166" t="s">
         <v>134</v>
       </c>
       <c r="D20" s="0"/>
@@ -11658,13 +11678,13 @@
       <c r="AF20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="165" t="n">
+      <c r="A21" s="166" t="n">
         <v>3</v>
       </c>
-      <c r="B21" s="165" t="s">
-        <v>265</v>
-      </c>
-      <c r="C21" s="165" t="s">
+      <c r="B21" s="166" t="s">
+        <v>266</v>
+      </c>
+      <c r="C21" s="166" t="s">
         <v>133</v>
       </c>
       <c r="D21" s="0"/>
@@ -11696,13 +11716,13 @@
       <c r="AF21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="165" t="n">
+      <c r="A22" s="166" t="n">
         <v>4</v>
       </c>
-      <c r="B22" s="165" t="s">
-        <v>266</v>
-      </c>
-      <c r="C22" s="165" t="s">
+      <c r="B22" s="166" t="s">
+        <v>267</v>
+      </c>
+      <c r="C22" s="166" t="s">
         <v>132</v>
       </c>
       <c r="D22" s="0"/>
@@ -11854,184 +11874,184 @@
       <c r="AF26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="160"/>
-      <c r="D27" s="160"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="109"/>
-      <c r="N27" s="109"/>
-      <c r="O27" s="109"/>
-      <c r="P27" s="109"/>
-      <c r="Q27" s="109"/>
-      <c r="R27" s="109"/>
-      <c r="S27" s="109"/>
-      <c r="T27" s="109"/>
-      <c r="U27" s="109"/>
-      <c r="V27" s="109"/>
-      <c r="W27" s="109"/>
-      <c r="X27" s="109"/>
-      <c r="Y27" s="109"/>
-      <c r="Z27" s="109"/>
-      <c r="AA27" s="109"/>
-      <c r="AB27" s="109"/>
-      <c r="AC27" s="109"/>
-      <c r="AD27" s="109"/>
-      <c r="AE27" s="109"/>
-      <c r="AF27" s="109"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="161"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="110"/>
+      <c r="N27" s="110"/>
+      <c r="O27" s="110"/>
+      <c r="P27" s="110"/>
+      <c r="Q27" s="110"/>
+      <c r="R27" s="110"/>
+      <c r="S27" s="110"/>
+      <c r="T27" s="110"/>
+      <c r="U27" s="110"/>
+      <c r="V27" s="110"/>
+      <c r="W27" s="110"/>
+      <c r="X27" s="110"/>
+      <c r="Y27" s="110"/>
+      <c r="Z27" s="110"/>
+      <c r="AA27" s="110"/>
+      <c r="AB27" s="110"/>
+      <c r="AC27" s="110"/>
+      <c r="AD27" s="110"/>
+      <c r="AE27" s="110"/>
+      <c r="AF27" s="110"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="160"/>
-      <c r="D28" s="160"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="109"/>
-      <c r="L28" s="109"/>
-      <c r="M28" s="109"/>
-      <c r="N28" s="109"/>
-      <c r="O28" s="109"/>
-      <c r="P28" s="109"/>
-      <c r="Q28" s="109"/>
-      <c r="R28" s="109"/>
-      <c r="S28" s="109"/>
-      <c r="T28" s="109"/>
-      <c r="U28" s="109"/>
-      <c r="V28" s="109"/>
-      <c r="W28" s="109"/>
-      <c r="X28" s="109"/>
-      <c r="Y28" s="109"/>
-      <c r="Z28" s="109"/>
-      <c r="AA28" s="109"/>
-      <c r="AB28" s="109"/>
-      <c r="AC28" s="109"/>
-      <c r="AD28" s="109"/>
-      <c r="AE28" s="109"/>
-      <c r="AF28" s="109"/>
+      <c r="C28" s="161"/>
+      <c r="D28" s="161"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="110"/>
+      <c r="N28" s="110"/>
+      <c r="O28" s="110"/>
+      <c r="P28" s="110"/>
+      <c r="Q28" s="110"/>
+      <c r="R28" s="110"/>
+      <c r="S28" s="110"/>
+      <c r="T28" s="110"/>
+      <c r="U28" s="110"/>
+      <c r="V28" s="110"/>
+      <c r="W28" s="110"/>
+      <c r="X28" s="110"/>
+      <c r="Y28" s="110"/>
+      <c r="Z28" s="110"/>
+      <c r="AA28" s="110"/>
+      <c r="AB28" s="110"/>
+      <c r="AC28" s="110"/>
+      <c r="AD28" s="110"/>
+      <c r="AE28" s="110"/>
+      <c r="AF28" s="110"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="160"/>
-      <c r="D29" s="160"/>
-      <c r="G29" s="109"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="109"/>
-      <c r="L29" s="109"/>
-      <c r="M29" s="109"/>
-      <c r="N29" s="109"/>
-      <c r="O29" s="109"/>
-      <c r="P29" s="109"/>
-      <c r="Q29" s="109"/>
-      <c r="R29" s="109"/>
-      <c r="S29" s="109"/>
-      <c r="T29" s="109"/>
-      <c r="U29" s="109"/>
-      <c r="V29" s="109"/>
-      <c r="W29" s="109"/>
-      <c r="X29" s="109"/>
-      <c r="Y29" s="109"/>
-      <c r="Z29" s="109"/>
-      <c r="AA29" s="109"/>
-      <c r="AB29" s="109"/>
-      <c r="AC29" s="109"/>
-      <c r="AD29" s="109"/>
-      <c r="AE29" s="109"/>
-      <c r="AF29" s="109"/>
+      <c r="C29" s="161"/>
+      <c r="D29" s="161"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="110"/>
+      <c r="M29" s="110"/>
+      <c r="N29" s="110"/>
+      <c r="O29" s="110"/>
+      <c r="P29" s="110"/>
+      <c r="Q29" s="110"/>
+      <c r="R29" s="110"/>
+      <c r="S29" s="110"/>
+      <c r="T29" s="110"/>
+      <c r="U29" s="110"/>
+      <c r="V29" s="110"/>
+      <c r="W29" s="110"/>
+      <c r="X29" s="110"/>
+      <c r="Y29" s="110"/>
+      <c r="Z29" s="110"/>
+      <c r="AA29" s="110"/>
+      <c r="AB29" s="110"/>
+      <c r="AC29" s="110"/>
+      <c r="AD29" s="110"/>
+      <c r="AE29" s="110"/>
+      <c r="AF29" s="110"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="166"/>
-      <c r="D30" s="166"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="109"/>
-      <c r="K30" s="109"/>
-      <c r="L30" s="109"/>
-      <c r="M30" s="109"/>
-      <c r="N30" s="109"/>
-      <c r="O30" s="109"/>
-      <c r="P30" s="109"/>
-      <c r="Q30" s="109"/>
-      <c r="R30" s="109"/>
-      <c r="S30" s="109"/>
-      <c r="T30" s="109"/>
-      <c r="U30" s="109"/>
-      <c r="V30" s="109"/>
-      <c r="W30" s="109"/>
-      <c r="X30" s="109"/>
-      <c r="Y30" s="109"/>
-      <c r="Z30" s="109"/>
-      <c r="AA30" s="109"/>
-      <c r="AB30" s="109"/>
-      <c r="AC30" s="109"/>
-      <c r="AD30" s="109"/>
-      <c r="AE30" s="109"/>
-      <c r="AF30" s="109"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="167"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="110"/>
+      <c r="M30" s="110"/>
+      <c r="N30" s="110"/>
+      <c r="O30" s="110"/>
+      <c r="P30" s="110"/>
+      <c r="Q30" s="110"/>
+      <c r="R30" s="110"/>
+      <c r="S30" s="110"/>
+      <c r="T30" s="110"/>
+      <c r="U30" s="110"/>
+      <c r="V30" s="110"/>
+      <c r="W30" s="110"/>
+      <c r="X30" s="110"/>
+      <c r="Y30" s="110"/>
+      <c r="Z30" s="110"/>
+      <c r="AA30" s="110"/>
+      <c r="AB30" s="110"/>
+      <c r="AC30" s="110"/>
+      <c r="AD30" s="110"/>
+      <c r="AE30" s="110"/>
+      <c r="AF30" s="110"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="166"/>
-      <c r="D31" s="166"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="109"/>
-      <c r="L31" s="109"/>
-      <c r="M31" s="109"/>
-      <c r="N31" s="109"/>
-      <c r="O31" s="109"/>
-      <c r="P31" s="109"/>
-      <c r="Q31" s="109"/>
-      <c r="R31" s="109"/>
-      <c r="S31" s="109"/>
-      <c r="T31" s="109"/>
-      <c r="U31" s="109"/>
-      <c r="V31" s="109"/>
-      <c r="W31" s="109"/>
-      <c r="X31" s="109"/>
-      <c r="Y31" s="109"/>
-      <c r="Z31" s="109"/>
-      <c r="AA31" s="109"/>
-      <c r="AB31" s="109"/>
-      <c r="AC31" s="109"/>
-      <c r="AD31" s="109"/>
-      <c r="AE31" s="109"/>
-      <c r="AF31" s="109"/>
+      <c r="C31" s="167"/>
+      <c r="D31" s="167"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="110"/>
+      <c r="M31" s="110"/>
+      <c r="N31" s="110"/>
+      <c r="O31" s="110"/>
+      <c r="P31" s="110"/>
+      <c r="Q31" s="110"/>
+      <c r="R31" s="110"/>
+      <c r="S31" s="110"/>
+      <c r="T31" s="110"/>
+      <c r="U31" s="110"/>
+      <c r="V31" s="110"/>
+      <c r="W31" s="110"/>
+      <c r="X31" s="110"/>
+      <c r="Y31" s="110"/>
+      <c r="Z31" s="110"/>
+      <c r="AA31" s="110"/>
+      <c r="AB31" s="110"/>
+      <c r="AC31" s="110"/>
+      <c r="AD31" s="110"/>
+      <c r="AE31" s="110"/>
+      <c r="AF31" s="110"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="166"/>
-      <c r="D32" s="166"/>
-      <c r="G32" s="109"/>
-      <c r="H32" s="109"/>
-      <c r="I32" s="109"/>
-      <c r="J32" s="109"/>
-      <c r="K32" s="109"/>
-      <c r="L32" s="109"/>
-      <c r="M32" s="109"/>
-      <c r="N32" s="109"/>
-      <c r="O32" s="109"/>
-      <c r="P32" s="109"/>
-      <c r="Q32" s="109"/>
-      <c r="R32" s="109"/>
-      <c r="S32" s="109"/>
-      <c r="T32" s="109"/>
-      <c r="U32" s="109"/>
-      <c r="V32" s="109"/>
-      <c r="W32" s="109"/>
-      <c r="X32" s="109"/>
-      <c r="Y32" s="109"/>
-      <c r="Z32" s="109"/>
-      <c r="AA32" s="109"/>
-      <c r="AB32" s="109"/>
-      <c r="AC32" s="109"/>
-      <c r="AD32" s="109"/>
-      <c r="AE32" s="109"/>
-      <c r="AF32" s="109"/>
+      <c r="C32" s="167"/>
+      <c r="D32" s="167"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="110"/>
+      <c r="M32" s="110"/>
+      <c r="N32" s="110"/>
+      <c r="O32" s="110"/>
+      <c r="P32" s="110"/>
+      <c r="Q32" s="110"/>
+      <c r="R32" s="110"/>
+      <c r="S32" s="110"/>
+      <c r="T32" s="110"/>
+      <c r="U32" s="110"/>
+      <c r="V32" s="110"/>
+      <c r="W32" s="110"/>
+      <c r="X32" s="110"/>
+      <c r="Y32" s="110"/>
+      <c r="Z32" s="110"/>
+      <c r="AA32" s="110"/>
+      <c r="AB32" s="110"/>
+      <c r="AC32" s="110"/>
+      <c r="AD32" s="110"/>
+      <c r="AE32" s="110"/>
+      <c r="AF32" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="2">
